--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -1156,10 +1156,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111253264</v>
+        <v>111252822</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,31 +1172,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1204,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>616380.1963899857</v>
+        <v>616244.7509416816</v>
       </c>
       <c r="R6" t="n">
-        <v>7268781.82311049</v>
+        <v>7268665.110124372</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1252,17 +1247,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Skalad klen gran</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1281,7 +1272,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111252857</v>
+        <v>111254290</v>
       </c>
       <c r="B7" t="n">
         <v>77186</v>
@@ -1324,10 +1315,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616275.2881472342</v>
+        <v>616666.8483334343</v>
       </c>
       <c r="R7" t="n">
-        <v>7268691.663500885</v>
+        <v>7268175.722150465</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1397,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111254964</v>
+        <v>111253880</v>
       </c>
       <c r="B8" t="n">
-        <v>89646</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1409,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>65</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1440,10 +1431,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616283.0432243603</v>
+        <v>616445.5974736148</v>
       </c>
       <c r="R8" t="n">
-        <v>7268705.678047526</v>
+        <v>7268674.80549312</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1513,7 +1504,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111254040</v>
+        <v>111254070</v>
       </c>
       <c r="B9" t="n">
         <v>77268</v>
@@ -1556,10 +1547,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>616450.0288772837</v>
+        <v>616467.3814644309</v>
       </c>
       <c r="R9" t="n">
-        <v>7268481.034433298</v>
+        <v>7268463.039678532</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1629,10 +1620,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111252623</v>
+        <v>111254433</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>90854</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1645,21 +1636,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>2079</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1672,10 +1663,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>616156.5003672343</v>
+        <v>616536.6424337096</v>
       </c>
       <c r="R10" t="n">
-        <v>7268678.195968762</v>
+        <v>7268509.007133822</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1745,10 +1736,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111252732</v>
+        <v>111252876</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>89558</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1757,25 +1748,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>1503</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1788,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>616160.8644792374</v>
+        <v>616275.2881472342</v>
       </c>
       <c r="R11" t="n">
-        <v>7268652.20691471</v>
+        <v>7268691.663500885</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1861,10 +1852,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111254229</v>
+        <v>111253652</v>
       </c>
       <c r="B12" t="n">
-        <v>89558</v>
+        <v>78107</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1873,25 +1864,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1503</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1904,10 +1895,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>616587.4452544958</v>
+        <v>616345.9671296075</v>
       </c>
       <c r="R12" t="n">
-        <v>7268299.638246101</v>
+        <v>7268577.376012423</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1977,7 +1968,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111254260</v>
+        <v>111253784</v>
       </c>
       <c r="B13" t="n">
         <v>77186</v>
@@ -2012,11 +2003,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2024,10 +2011,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>616654.3081107945</v>
+        <v>616400.8149758804</v>
       </c>
       <c r="R13" t="n">
-        <v>7268208.448433449</v>
+        <v>7268651.002295173</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2097,10 +2084,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111253845</v>
+        <v>111253685</v>
       </c>
       <c r="B14" t="n">
-        <v>89369</v>
+        <v>78107</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2109,25 +2096,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2140,10 +2127,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>616420.2897608363</v>
+        <v>616357.0091243802</v>
       </c>
       <c r="R14" t="n">
-        <v>7268538.40363889</v>
+        <v>7268571.588119661</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2213,10 +2200,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111254353</v>
+        <v>111252649</v>
       </c>
       <c r="B15" t="n">
-        <v>89558</v>
+        <v>56414</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2225,30 +2212,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1503</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2256,10 +2248,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>616748.8137777862</v>
+        <v>616158.7061250493</v>
       </c>
       <c r="R15" t="n">
-        <v>7268267.897773226</v>
+        <v>7268654.19717967</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2310,7 +2302,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2329,10 +2320,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111252730</v>
+        <v>111254229</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>89558</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2341,25 +2332,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>1503</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2372,10 +2363,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>616160.8644792374</v>
+        <v>616587.4452544958</v>
       </c>
       <c r="R16" t="n">
-        <v>7268652.20691471</v>
+        <v>7268299.638246101</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2445,10 +2436,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111253092</v>
+        <v>111253719</v>
       </c>
       <c r="B17" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2461,21 +2452,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2488,10 +2479,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>616339.8834939363</v>
+        <v>616371.8042559561</v>
       </c>
       <c r="R17" t="n">
-        <v>7268802.219853354</v>
+        <v>7268575.917784734</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2561,10 +2552,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111252746</v>
+        <v>111253845</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2573,25 +2564,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2604,10 +2595,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>616173.9482352135</v>
+        <v>616420.2897608363</v>
       </c>
       <c r="R18" t="n">
-        <v>7268647.330667435</v>
+        <v>7268538.40363889</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2677,10 +2668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111254387</v>
+        <v>111254193</v>
       </c>
       <c r="B19" t="n">
-        <v>56414</v>
+        <v>89419</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2693,31 +2684,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100049</v>
+        <v>1204</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2725,10 +2711,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>616615.1582897741</v>
+        <v>616481.4461878912</v>
       </c>
       <c r="R19" t="n">
-        <v>7268375.926226165</v>
+        <v>7268371.399515979</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2779,6 +2765,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2797,7 +2784,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111253213</v>
+        <v>111252623</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2832,11 +2819,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2844,10 +2827,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>616380.8443888725</v>
+        <v>616156.5003672343</v>
       </c>
       <c r="R20" t="n">
-        <v>7268796.798990206</v>
+        <v>7268678.195968762</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2917,10 +2900,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111253698</v>
+        <v>111254260</v>
       </c>
       <c r="B21" t="n">
-        <v>77267</v>
+        <v>77186</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2933,26 +2916,30 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6446</v>
+        <v>353</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2960,10 +2947,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>616357.0091243802</v>
+        <v>616654.3081107945</v>
       </c>
       <c r="R21" t="n">
-        <v>7268571.588119661</v>
+        <v>7268208.448433449</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3033,10 +3020,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111254290</v>
+        <v>111253794</v>
       </c>
       <c r="B22" t="n">
-        <v>77186</v>
+        <v>77267</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3049,21 +3036,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3076,10 +3063,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>616666.8483334343</v>
+        <v>616404.4687667027</v>
       </c>
       <c r="R22" t="n">
-        <v>7268175.722150465</v>
+        <v>7268684.372038134</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3149,10 +3136,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111253685</v>
+        <v>111254922</v>
       </c>
       <c r="B23" t="n">
-        <v>78107</v>
+        <v>89646</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3161,25 +3148,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6453</v>
+        <v>65</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3192,10 +3179,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>616357.0091243802</v>
+        <v>616419.6929341245</v>
       </c>
       <c r="R23" t="n">
-        <v>7268571.588119661</v>
+        <v>7268584.479073004</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3265,10 +3252,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111252817</v>
+        <v>111253264</v>
       </c>
       <c r="B24" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3281,26 +3268,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3308,10 +3300,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>616244.7509416816</v>
+        <v>616380.1963899857</v>
       </c>
       <c r="R24" t="n">
-        <v>7268665.110124372</v>
+        <v>7268781.82311049</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3356,13 +3348,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Skalad klen gran</t>
+        </is>
+      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3381,10 +3377,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111252649</v>
+        <v>111253338</v>
       </c>
       <c r="B25" t="n">
-        <v>56414</v>
+        <v>77186</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3397,31 +3393,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>353</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3429,10 +3420,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>616158.7061250493</v>
+        <v>616349.8762652914</v>
       </c>
       <c r="R25" t="n">
-        <v>7268654.19717967</v>
+        <v>7268739.497257653</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3483,6 +3474,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3501,10 +3493,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111253338</v>
+        <v>111253599</v>
       </c>
       <c r="B26" t="n">
-        <v>77186</v>
+        <v>89330</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3517,21 +3509,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>353</v>
+        <v>3242</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3544,10 +3536,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>616349.8762652914</v>
+        <v>616339.8934839577</v>
       </c>
       <c r="R26" t="n">
-        <v>7268739.497257653</v>
+        <v>7268656.455437001</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3617,10 +3609,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111253181</v>
+        <v>111254040</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>77268</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3633,21 +3625,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>228912</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3660,10 +3652,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>616402.3138997222</v>
+        <v>616450.0288772837</v>
       </c>
       <c r="R27" t="n">
-        <v>7268842.09233178</v>
+        <v>7268481.034433298</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3733,10 +3725,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111252609</v>
+        <v>111253627</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>90854</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3749,31 +3741,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>2079</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3781,10 +3768,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>616162.9632538864</v>
+        <v>616367.8880224366</v>
       </c>
       <c r="R28" t="n">
-        <v>7268714.168752246</v>
+        <v>7268642.624688186</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3829,17 +3816,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Flera skalade klena granar</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3858,10 +3841,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111253794</v>
+        <v>111252730</v>
       </c>
       <c r="B29" t="n">
-        <v>77267</v>
+        <v>89686</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3874,21 +3857,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6446</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3901,10 +3884,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>616404.4687667027</v>
+        <v>616160.8644792374</v>
       </c>
       <c r="R29" t="n">
-        <v>7268684.372038134</v>
+        <v>7268652.20691471</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3974,10 +3957,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111253147</v>
+        <v>111252609</v>
       </c>
       <c r="B30" t="n">
-        <v>78612</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3986,30 +3969,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6464</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4017,10 +4005,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>616334.7038700996</v>
+        <v>616162.9632538864</v>
       </c>
       <c r="R30" t="n">
-        <v>7268817.377759938</v>
+        <v>7268714.168752246</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4065,13 +4053,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Flera skalade klena granar</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4090,10 +4082,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111254193</v>
+        <v>111254946</v>
       </c>
       <c r="B31" t="n">
-        <v>89419</v>
+        <v>89369</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4102,25 +4094,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4133,10 +4125,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>616481.4461878912</v>
+        <v>616416.7370724363</v>
       </c>
       <c r="R31" t="n">
-        <v>7268371.399515979</v>
+        <v>7268575.224019129</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4206,10 +4198,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111253880</v>
+        <v>111253213</v>
       </c>
       <c r="B32" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4218,30 +4210,34 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4249,10 +4245,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>616445.5974736148</v>
+        <v>616380.8443888725</v>
       </c>
       <c r="R32" t="n">
-        <v>7268674.80549312</v>
+        <v>7268796.798990206</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4322,10 +4318,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111253784</v>
+        <v>111253092</v>
       </c>
       <c r="B33" t="n">
-        <v>77186</v>
+        <v>78107</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4338,21 +4334,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4365,10 +4361,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>616400.8149758804</v>
+        <v>616339.8834939363</v>
       </c>
       <c r="R33" t="n">
-        <v>7268651.002295173</v>
+        <v>7268802.219853354</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4438,10 +4434,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111254922</v>
+        <v>111253954</v>
       </c>
       <c r="B34" t="n">
-        <v>89646</v>
+        <v>81248</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4450,25 +4446,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>65</v>
+        <v>1312</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4481,10 +4477,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>616419.6929341245</v>
+        <v>616466.3363017822</v>
       </c>
       <c r="R34" t="n">
-        <v>7268584.479073004</v>
+        <v>7268676.051166133</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4554,10 +4550,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111253599</v>
+        <v>111254353</v>
       </c>
       <c r="B35" t="n">
-        <v>89330</v>
+        <v>89558</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4566,25 +4562,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3242</v>
+        <v>1503</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4597,10 +4593,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>616339.8934839577</v>
+        <v>616748.8137777862</v>
       </c>
       <c r="R35" t="n">
-        <v>7268656.455437001</v>
+        <v>7268267.897773226</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4670,10 +4666,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111253627</v>
+        <v>111252732</v>
       </c>
       <c r="B36" t="n">
-        <v>90854</v>
+        <v>89405</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4686,21 +4682,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2079</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4713,10 +4709,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>616367.8880224366</v>
+        <v>616160.8644792374</v>
       </c>
       <c r="R36" t="n">
-        <v>7268642.624688186</v>
+        <v>7268652.20691471</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4786,10 +4782,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111254201</v>
+        <v>111254964</v>
       </c>
       <c r="B37" t="n">
-        <v>89686</v>
+        <v>89646</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4798,25 +4794,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>658</v>
+        <v>65</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4829,10 +4825,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>616481.4461878912</v>
+        <v>616283.0432243603</v>
       </c>
       <c r="R37" t="n">
-        <v>7268371.399515979</v>
+        <v>7268705.678047526</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4902,10 +4898,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111254070</v>
+        <v>111253434</v>
       </c>
       <c r="B38" t="n">
-        <v>77268</v>
+        <v>90666</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4914,25 +4910,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4945,10 +4941,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>616467.3814644309</v>
+        <v>616352.5637576731</v>
       </c>
       <c r="R38" t="n">
-        <v>7268463.039678532</v>
+        <v>7268682.710435705</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -5018,10 +5014,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111253719</v>
+        <v>111254387</v>
       </c>
       <c r="B39" t="n">
-        <v>77268</v>
+        <v>56414</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5034,26 +5030,31 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>228912</v>
+        <v>100049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5061,10 +5062,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>616371.8042559561</v>
+        <v>616615.1582897741</v>
       </c>
       <c r="R39" t="n">
-        <v>7268575.917784734</v>
+        <v>7268375.926226165</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5115,7 +5116,6 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5134,10 +5134,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111252876</v>
+        <v>111254201</v>
       </c>
       <c r="B40" t="n">
-        <v>89558</v>
+        <v>89686</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5146,25 +5146,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1503</v>
+        <v>658</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5177,10 +5177,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>616275.2881472342</v>
+        <v>616481.4461878912</v>
       </c>
       <c r="R40" t="n">
-        <v>7268691.663500885</v>
+        <v>7268371.399515979</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111253434</v>
+        <v>111252746</v>
       </c>
       <c r="B41" t="n">
-        <v>90666</v>
+        <v>89405</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5262,25 +5262,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4364</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5293,10 +5293,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>616352.5637576731</v>
+        <v>616173.9482352135</v>
       </c>
       <c r="R41" t="n">
-        <v>7268682.710435705</v>
+        <v>7268647.330667435</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5366,10 +5366,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111253954</v>
+        <v>111253698</v>
       </c>
       <c r="B42" t="n">
-        <v>81248</v>
+        <v>77267</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5382,21 +5382,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1312</v>
+        <v>6446</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5409,10 +5409,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>616466.3363017822</v>
+        <v>616357.0091243802</v>
       </c>
       <c r="R42" t="n">
-        <v>7268676.051166133</v>
+        <v>7268571.588119661</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5482,10 +5482,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111254433</v>
+        <v>111252857</v>
       </c>
       <c r="B43" t="n">
-        <v>90854</v>
+        <v>77186</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5498,21 +5498,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2079</v>
+        <v>353</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5525,10 +5525,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>616536.6424337096</v>
+        <v>616275.2881472342</v>
       </c>
       <c r="R43" t="n">
-        <v>7268509.007133822</v>
+        <v>7268691.663500885</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111254946</v>
+        <v>111253147</v>
       </c>
       <c r="B44" t="n">
-        <v>89369</v>
+        <v>78612</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5614,21 +5614,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5447</v>
+        <v>6464</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5641,10 +5641,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>616416.7370724363</v>
+        <v>616334.7038700996</v>
       </c>
       <c r="R44" t="n">
-        <v>7268575.224019129</v>
+        <v>7268817.377759938</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5714,10 +5714,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111253652</v>
+        <v>111254011</v>
       </c>
       <c r="B45" t="n">
-        <v>78107</v>
+        <v>77515</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5730,21 +5730,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6453</v>
+        <v>6425</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5757,10 +5757,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>616345.9671296075</v>
+        <v>616476.6475364392</v>
       </c>
       <c r="R45" t="n">
-        <v>7268577.376012423</v>
+        <v>7268730.036465613</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111254011</v>
+        <v>111253181</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5846,21 +5846,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5873,10 +5873,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>616476.6475364392</v>
+        <v>616402.3138997222</v>
       </c>
       <c r="R46" t="n">
-        <v>7268730.036465613</v>
+        <v>7268842.09233178</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736402</v>
+        <v>111736268</v>
       </c>
       <c r="B47" t="n">
-        <v>89423</v>
+        <v>89401</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,21 +5962,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5989,10 +5989,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>616333.1117616051</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R47" t="n">
-        <v>7268857.179896916</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736268</v>
+        <v>111736370</v>
       </c>
       <c r="B49" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6198,26 +6198,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6225,10 +6230,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616308.8236423519</v>
+        <v>616327.1020967637</v>
       </c>
       <c r="R49" t="n">
-        <v>7268903.133137755</v>
+        <v>7268872.304318298</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6279,7 +6284,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6298,7 +6302,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736405</v>
+        <v>111736257</v>
       </c>
       <c r="B50" t="n">
         <v>77515</v>
@@ -6341,10 +6345,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>616333.1117616051</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R50" t="n">
-        <v>7268857.179896916</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6414,10 +6418,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736257</v>
+        <v>111736402</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6430,21 +6434,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6457,10 +6461,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>616308.8236423519</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R51" t="n">
-        <v>7268903.133137755</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6530,10 +6534,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736370</v>
+        <v>111736405</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6546,31 +6550,26 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6578,10 +6577,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616327.1020967637</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R52" t="n">
-        <v>7268872.304318298</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6632,6 +6631,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111777499</v>
+        <v>111777494</v>
       </c>
       <c r="B53" t="n">
-        <v>78107</v>
+        <v>90854</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6666,21 +6666,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6891,10 +6891,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111778126</v>
+        <v>111777499</v>
       </c>
       <c r="B55" t="n">
-        <v>89405</v>
+        <v>78107</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6907,21 +6907,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6934,10 +6934,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616202.3044715263</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R55" t="n">
-        <v>7268603.611313918</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111778163</v>
+        <v>111777411</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7055,10 +7055,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616207.2556492372</v>
+        <v>616367.7277224116</v>
       </c>
       <c r="R56" t="n">
-        <v>7268635.7870906</v>
+        <v>7268802.503264537</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Skalad gran</t>
+          <t>Skalade granstammar</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7248,10 +7248,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111778005</v>
+        <v>111777491</v>
       </c>
       <c r="B58" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7260,30 +7260,35 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7291,10 +7296,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616499.3130462242</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R58" t="n">
-        <v>7268610.508796399</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7339,13 +7344,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7364,7 +7373,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111777491</v>
+        <v>111778163</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7412,10 +7421,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616426.5202303537</v>
+        <v>616207.2556492372</v>
       </c>
       <c r="R59" t="n">
-        <v>7268746.301918368</v>
+        <v>7268635.7870906</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7462,7 +7471,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>Skalade granstammar</t>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7489,10 +7498,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111778248</v>
+        <v>111777331</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7505,31 +7514,26 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7537,10 +7541,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616162.9874832245</v>
+        <v>616362.7639770868</v>
       </c>
       <c r="R60" t="n">
-        <v>7268630.281087617</v>
+        <v>7268822.653031595</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7585,17 +7589,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7614,10 +7614,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111777940</v>
+        <v>111777467</v>
       </c>
       <c r="B61" t="n">
-        <v>90678</v>
+        <v>89423</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7626,25 +7626,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4366</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7657,13 +7657,13 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>616438.7745429112</v>
+        <v>616413.4864248879</v>
       </c>
       <c r="R61" t="n">
-        <v>7268803.685732875</v>
+        <v>7268760.315060399</v>
       </c>
       <c r="S61" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -7730,10 +7730,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111777494</v>
+        <v>111778005</v>
       </c>
       <c r="B62" t="n">
-        <v>90854</v>
+        <v>89369</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7742,25 +7742,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2079</v>
+        <v>5447</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7773,10 +7773,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616426.5202303537</v>
+        <v>616499.3130462242</v>
       </c>
       <c r="R62" t="n">
-        <v>7268746.301918368</v>
+        <v>7268610.508796399</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7846,10 +7846,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111777331</v>
+        <v>111778248</v>
       </c>
       <c r="B63" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7862,26 +7862,31 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -7889,10 +7894,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616362.7639770868</v>
+        <v>616162.9874832245</v>
       </c>
       <c r="R63" t="n">
-        <v>7268822.653031595</v>
+        <v>7268630.281087617</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7937,13 +7942,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -7962,10 +7971,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111777411</v>
+        <v>111778126</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7978,31 +7987,26 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8010,10 +8014,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616367.7277224116</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R64" t="n">
-        <v>7268802.503264537</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8058,17 +8062,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8087,10 +8087,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111777467</v>
+        <v>111777940</v>
       </c>
       <c r="B65" t="n">
-        <v>89423</v>
+        <v>90678</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8099,25 +8099,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5432</v>
+        <v>4366</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8130,13 +8130,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616413.4864248879</v>
+        <v>616438.7745429112</v>
       </c>
       <c r="R65" t="n">
-        <v>7268760.315060399</v>
+        <v>7268803.685732875</v>
       </c>
       <c r="S65" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -1156,10 +1156,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111252822</v>
+        <v>111253338</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>77186</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,21 +1172,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>616244.7509416816</v>
+        <v>616349.8762652914</v>
       </c>
       <c r="R6" t="n">
-        <v>7268665.110124372</v>
+        <v>7268739.497257653</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111254290</v>
+        <v>111252746</v>
       </c>
       <c r="B7" t="n">
-        <v>77186</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1288,21 +1288,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>353</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616666.8483334343</v>
+        <v>616173.9482352135</v>
       </c>
       <c r="R7" t="n">
-        <v>7268175.722150465</v>
+        <v>7268647.330667435</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111253880</v>
+        <v>111253698</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>77267</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616445.5974736148</v>
+        <v>616357.0091243802</v>
       </c>
       <c r="R8" t="n">
-        <v>7268674.80549312</v>
+        <v>7268571.588119661</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111254070</v>
+        <v>111253092</v>
       </c>
       <c r="B9" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1520,21 +1520,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>616467.3814644309</v>
+        <v>616339.8834939363</v>
       </c>
       <c r="R9" t="n">
-        <v>7268463.039678532</v>
+        <v>7268802.219853354</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1620,10 +1620,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111254433</v>
+        <v>111253880</v>
       </c>
       <c r="B10" t="n">
-        <v>90854</v>
+        <v>90666</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,25 +1632,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2079</v>
+        <v>4364</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>616536.6424337096</v>
+        <v>616445.5974736148</v>
       </c>
       <c r="R10" t="n">
-        <v>7268509.007133822</v>
+        <v>7268674.80549312</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1736,10 +1736,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111252876</v>
+        <v>111253147</v>
       </c>
       <c r="B11" t="n">
-        <v>89558</v>
+        <v>78612</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1748,25 +1748,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1503</v>
+        <v>6464</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>616275.2881472342</v>
+        <v>616334.7038700996</v>
       </c>
       <c r="R11" t="n">
-        <v>7268691.663500885</v>
+        <v>7268817.377759938</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1852,10 +1852,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111253652</v>
+        <v>111252730</v>
       </c>
       <c r="B12" t="n">
-        <v>78107</v>
+        <v>89686</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1868,21 +1868,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>658</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1895,10 +1895,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>616345.9671296075</v>
+        <v>616160.8644792374</v>
       </c>
       <c r="R12" t="n">
-        <v>7268577.376012423</v>
+        <v>7268652.20691471</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1968,10 +1968,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111253784</v>
+        <v>111254201</v>
       </c>
       <c r="B13" t="n">
-        <v>77186</v>
+        <v>89686</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1984,21 +1984,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>353</v>
+        <v>658</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2011,10 +2011,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>616400.8149758804</v>
+        <v>616481.4461878912</v>
       </c>
       <c r="R13" t="n">
-        <v>7268651.002295173</v>
+        <v>7268371.399515979</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2084,10 +2084,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111253685</v>
+        <v>111254290</v>
       </c>
       <c r="B14" t="n">
-        <v>78107</v>
+        <v>77186</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2100,21 +2100,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>353</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>616357.0091243802</v>
+        <v>616666.8483334343</v>
       </c>
       <c r="R14" t="n">
-        <v>7268571.588119661</v>
+        <v>7268175.722150465</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2200,10 +2200,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111252649</v>
+        <v>111254964</v>
       </c>
       <c r="B15" t="n">
-        <v>56414</v>
+        <v>89646</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2212,35 +2212,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>65</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2248,10 +2243,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>616158.7061250493</v>
+        <v>616283.0432243603</v>
       </c>
       <c r="R15" t="n">
-        <v>7268654.19717967</v>
+        <v>7268705.678047526</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2302,6 +2297,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2320,10 +2316,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111254229</v>
+        <v>111253784</v>
       </c>
       <c r="B16" t="n">
-        <v>89558</v>
+        <v>77186</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2332,25 +2328,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1503</v>
+        <v>353</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2363,10 +2359,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>616587.4452544958</v>
+        <v>616400.8149758804</v>
       </c>
       <c r="R16" t="n">
-        <v>7268299.638246101</v>
+        <v>7268651.002295173</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2436,10 +2432,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111253719</v>
+        <v>111254946</v>
       </c>
       <c r="B17" t="n">
-        <v>77268</v>
+        <v>89369</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2448,25 +2444,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228912</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2479,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>616371.8042559561</v>
+        <v>616416.7370724363</v>
       </c>
       <c r="R17" t="n">
-        <v>7268575.917784734</v>
+        <v>7268575.224019129</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2552,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111253845</v>
+        <v>111254353</v>
       </c>
       <c r="B18" t="n">
-        <v>89369</v>
+        <v>89558</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2564,25 +2560,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>1503</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2595,10 +2591,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>616420.2897608363</v>
+        <v>616748.8137777862</v>
       </c>
       <c r="R18" t="n">
-        <v>7268538.40363889</v>
+        <v>7268267.897773226</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2668,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111254193</v>
+        <v>111253794</v>
       </c>
       <c r="B19" t="n">
-        <v>89419</v>
+        <v>77267</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2684,21 +2680,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1204</v>
+        <v>6446</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2711,10 +2707,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>616481.4461878912</v>
+        <v>616404.4687667027</v>
       </c>
       <c r="R19" t="n">
-        <v>7268371.399515979</v>
+        <v>7268684.372038134</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2784,10 +2780,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111252623</v>
+        <v>111252817</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2800,21 +2796,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2827,10 +2823,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>616156.5003672343</v>
+        <v>616244.7509416816</v>
       </c>
       <c r="R20" t="n">
-        <v>7268678.195968762</v>
+        <v>7268665.110124372</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2900,10 +2896,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111254260</v>
+        <v>111253954</v>
       </c>
       <c r="B21" t="n">
-        <v>77186</v>
+        <v>81248</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2916,30 +2912,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>353</v>
+        <v>1312</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2947,10 +2939,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>616654.3081107945</v>
+        <v>616466.3363017822</v>
       </c>
       <c r="R21" t="n">
-        <v>7268208.448433449</v>
+        <v>7268676.051166133</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3020,10 +3012,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111253794</v>
+        <v>111254040</v>
       </c>
       <c r="B22" t="n">
-        <v>77267</v>
+        <v>77268</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3036,21 +3028,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3063,10 +3055,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>616404.4687667027</v>
+        <v>616450.0288772837</v>
       </c>
       <c r="R22" t="n">
-        <v>7268684.372038134</v>
+        <v>7268481.034433298</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3136,10 +3128,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111254922</v>
+        <v>111254193</v>
       </c>
       <c r="B23" t="n">
-        <v>89646</v>
+        <v>89419</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3148,25 +3140,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>65</v>
+        <v>1204</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3179,10 +3171,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>616419.6929341245</v>
+        <v>616481.4461878912</v>
       </c>
       <c r="R23" t="n">
-        <v>7268584.479073004</v>
+        <v>7268371.399515979</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3252,10 +3244,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111253264</v>
+        <v>111254229</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>89558</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3264,35 +3256,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>1503</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3300,10 +3287,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>616380.1963899857</v>
+        <v>616587.4452544958</v>
       </c>
       <c r="R24" t="n">
-        <v>7268781.82311049</v>
+        <v>7268299.638246101</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3348,17 +3335,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Skalad klen gran</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3377,10 +3360,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111253338</v>
+        <v>111253627</v>
       </c>
       <c r="B25" t="n">
-        <v>77186</v>
+        <v>90854</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3393,21 +3376,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>353</v>
+        <v>2079</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3420,10 +3403,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>616349.8762652914</v>
+        <v>616367.8880224366</v>
       </c>
       <c r="R25" t="n">
-        <v>7268739.497257653</v>
+        <v>7268642.624688186</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3493,10 +3476,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111253599</v>
+        <v>111252857</v>
       </c>
       <c r="B26" t="n">
-        <v>89330</v>
+        <v>77186</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3509,21 +3492,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3242</v>
+        <v>353</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3536,10 +3519,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>616339.8934839577</v>
+        <v>616275.2881472342</v>
       </c>
       <c r="R26" t="n">
-        <v>7268656.455437001</v>
+        <v>7268691.663500885</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3609,10 +3592,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111254040</v>
+        <v>111254260</v>
       </c>
       <c r="B27" t="n">
-        <v>77268</v>
+        <v>77186</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3625,26 +3608,30 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3652,10 +3639,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>616450.0288772837</v>
+        <v>616654.3081107945</v>
       </c>
       <c r="R27" t="n">
-        <v>7268481.034433298</v>
+        <v>7268208.448433449</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3725,10 +3712,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111253627</v>
+        <v>111253213</v>
       </c>
       <c r="B28" t="n">
-        <v>90854</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3741,26 +3728,30 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2079</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3768,10 +3759,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>616367.8880224366</v>
+        <v>616380.8443888725</v>
       </c>
       <c r="R28" t="n">
-        <v>7268642.624688186</v>
+        <v>7268796.798990206</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3841,10 +3832,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111252730</v>
+        <v>111253264</v>
       </c>
       <c r="B29" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3857,26 +3848,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3884,10 +3880,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>616160.8644792374</v>
+        <v>616380.1963899857</v>
       </c>
       <c r="R29" t="n">
-        <v>7268652.20691471</v>
+        <v>7268781.82311049</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3932,13 +3928,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Skalad klen gran</t>
+        </is>
+      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3957,10 +3957,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111252609</v>
+        <v>111253599</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>89330</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3973,31 +3973,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>3242</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4005,10 +4000,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>616162.9632538864</v>
+        <v>616339.8934839577</v>
       </c>
       <c r="R30" t="n">
-        <v>7268714.168752246</v>
+        <v>7268656.455437001</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4053,17 +4048,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Flera skalade klena granar</t>
-        </is>
-      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4082,10 +4073,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111254946</v>
+        <v>111253181</v>
       </c>
       <c r="B31" t="n">
-        <v>89369</v>
+        <v>89423</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4094,25 +4085,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4125,10 +4116,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>616416.7370724363</v>
+        <v>616402.3138997222</v>
       </c>
       <c r="R31" t="n">
-        <v>7268575.224019129</v>
+        <v>7268842.09233178</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4198,10 +4189,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111253213</v>
+        <v>111254387</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>56414</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4214,28 +4205,29 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -4245,10 +4237,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>616380.8443888725</v>
+        <v>616615.1582897741</v>
       </c>
       <c r="R32" t="n">
-        <v>7268796.798990206</v>
+        <v>7268375.926226165</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4299,7 +4291,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4318,10 +4309,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111253092</v>
+        <v>111253719</v>
       </c>
       <c r="B33" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4334,21 +4325,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4361,10 +4352,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>616339.8834939363</v>
+        <v>616371.8042559561</v>
       </c>
       <c r="R33" t="n">
-        <v>7268802.219853354</v>
+        <v>7268575.917784734</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4434,10 +4425,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111253954</v>
+        <v>111252623</v>
       </c>
       <c r="B34" t="n">
-        <v>81248</v>
+        <v>77515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4450,21 +4441,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4477,10 +4468,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>616466.3363017822</v>
+        <v>616156.5003672343</v>
       </c>
       <c r="R34" t="n">
-        <v>7268676.051166133</v>
+        <v>7268678.195968762</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4550,7 +4541,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111254353</v>
+        <v>111252876</v>
       </c>
       <c r="B35" t="n">
         <v>89558</v>
@@ -4593,10 +4584,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>616748.8137777862</v>
+        <v>616275.2881472342</v>
       </c>
       <c r="R35" t="n">
-        <v>7268267.897773226</v>
+        <v>7268691.663500885</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4666,10 +4657,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111252732</v>
+        <v>111254922</v>
       </c>
       <c r="B36" t="n">
-        <v>89405</v>
+        <v>89646</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4678,25 +4669,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>65</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4709,10 +4700,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>616160.8644792374</v>
+        <v>616419.6929341245</v>
       </c>
       <c r="R36" t="n">
-        <v>7268652.20691471</v>
+        <v>7268584.479073004</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4782,10 +4773,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111254964</v>
+        <v>111254070</v>
       </c>
       <c r="B37" t="n">
-        <v>89646</v>
+        <v>77268</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4794,25 +4785,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>65</v>
+        <v>228912</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4825,10 +4816,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>616283.0432243603</v>
+        <v>616467.3814644309</v>
       </c>
       <c r="R37" t="n">
-        <v>7268705.678047526</v>
+        <v>7268463.039678532</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4898,10 +4889,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111253434</v>
+        <v>111252609</v>
       </c>
       <c r="B38" t="n">
-        <v>90666</v>
+        <v>56398</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4910,30 +4901,35 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4941,10 +4937,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>616352.5637576731</v>
+        <v>616162.9632538864</v>
       </c>
       <c r="R38" t="n">
-        <v>7268682.710435705</v>
+        <v>7268714.168752246</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4989,13 +4985,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Flera skalade klena granar</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111254387</v>
+        <v>111253652</v>
       </c>
       <c r="B39" t="n">
-        <v>56414</v>
+        <v>78107</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5030,31 +5030,26 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100049</v>
+        <v>6453</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5062,10 +5057,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>616615.1582897741</v>
+        <v>616345.9671296075</v>
       </c>
       <c r="R39" t="n">
-        <v>7268375.926226165</v>
+        <v>7268577.376012423</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5116,6 +5111,7 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
@@ -5134,10 +5130,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111254201</v>
+        <v>111253434</v>
       </c>
       <c r="B40" t="n">
-        <v>89686</v>
+        <v>90666</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5146,25 +5142,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>658</v>
+        <v>4364</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5177,10 +5173,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>616481.4461878912</v>
+        <v>616352.5637576731</v>
       </c>
       <c r="R40" t="n">
-        <v>7268371.399515979</v>
+        <v>7268682.710435705</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5250,7 +5246,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111252746</v>
+        <v>111252732</v>
       </c>
       <c r="B41" t="n">
         <v>89405</v>
@@ -5293,10 +5289,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>616173.9482352135</v>
+        <v>616160.8644792374</v>
       </c>
       <c r="R41" t="n">
-        <v>7268647.330667435</v>
+        <v>7268652.20691471</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5366,10 +5362,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111253698</v>
+        <v>111252649</v>
       </c>
       <c r="B42" t="n">
-        <v>77267</v>
+        <v>56414</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5382,26 +5378,31 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6446</v>
+        <v>100049</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5409,10 +5410,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>616357.0091243802</v>
+        <v>616158.7061250493</v>
       </c>
       <c r="R42" t="n">
-        <v>7268571.588119661</v>
+        <v>7268654.19717967</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5463,7 +5464,6 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5482,10 +5482,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111252857</v>
+        <v>111253845</v>
       </c>
       <c r="B43" t="n">
-        <v>77186</v>
+        <v>89369</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5494,25 +5494,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>353</v>
+        <v>5447</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5525,10 +5525,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>616275.2881472342</v>
+        <v>616420.2897608363</v>
       </c>
       <c r="R43" t="n">
-        <v>7268691.663500885</v>
+        <v>7268538.40363889</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5598,10 +5598,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111253147</v>
+        <v>111254433</v>
       </c>
       <c r="B44" t="n">
-        <v>78612</v>
+        <v>90854</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5610,25 +5610,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6464</v>
+        <v>2079</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5641,10 +5641,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>616334.7038700996</v>
+        <v>616536.6424337096</v>
       </c>
       <c r="R44" t="n">
-        <v>7268817.377759938</v>
+        <v>7268509.007133822</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5830,10 +5830,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111253181</v>
+        <v>111253685</v>
       </c>
       <c r="B46" t="n">
-        <v>89423</v>
+        <v>78107</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5846,21 +5846,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5432</v>
+        <v>6453</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5873,10 +5873,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>616402.3138997222</v>
+        <v>616357.0091243802</v>
       </c>
       <c r="R46" t="n">
-        <v>7268842.09233178</v>
+        <v>7268571.588119661</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736268</v>
+        <v>111736402</v>
       </c>
       <c r="B47" t="n">
-        <v>89401</v>
+        <v>89423</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,21 +5962,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5989,10 +5989,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>616308.8236423519</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R47" t="n">
-        <v>7268903.133137755</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6062,10 +6062,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736525</v>
+        <v>111736268</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6078,31 +6078,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6110,13 +6105,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>616358.6131022752</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R48" t="n">
-        <v>7268822.486957001</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6164,6 +6159,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6182,10 +6178,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736370</v>
+        <v>111736257</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6198,31 +6194,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6230,10 +6221,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616327.1020967637</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R49" t="n">
-        <v>7268872.304318298</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6284,6 +6275,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6302,7 +6294,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736257</v>
+        <v>111736405</v>
       </c>
       <c r="B50" t="n">
         <v>77515</v>
@@ -6345,10 +6337,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>616308.8236423519</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R50" t="n">
-        <v>7268903.133137755</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6418,10 +6410,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736402</v>
+        <v>111736506</v>
       </c>
       <c r="B51" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6434,26 +6426,31 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6461,13 +6458,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>616333.1117616051</v>
+        <v>616358.6131022752</v>
       </c>
       <c r="R51" t="n">
-        <v>7268857.179896916</v>
+        <v>7268822.486957001</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6509,13 +6506,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
+        </is>
+      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6534,10 +6535,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736405</v>
+        <v>111736370</v>
       </c>
       <c r="B52" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6550,26 +6551,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6577,10 +6583,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616333.1117616051</v>
+        <v>616327.1020967637</v>
       </c>
       <c r="R52" t="n">
-        <v>7268857.179896916</v>
+        <v>7268872.304318298</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6631,7 +6637,6 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6650,10 +6655,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111777494</v>
+        <v>111778126</v>
       </c>
       <c r="B53" t="n">
-        <v>90854</v>
+        <v>89405</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6666,21 +6671,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2079</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6693,10 +6698,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616426.5202303537</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R53" t="n">
-        <v>7268746.301918368</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6766,10 +6771,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111777380</v>
+        <v>111777331</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6782,31 +6787,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6814,10 +6814,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616414.0528149965</v>
+        <v>616362.7639770868</v>
       </c>
       <c r="R54" t="n">
-        <v>7268860.418718725</v>
+        <v>7268822.653031595</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6862,17 +6862,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Skalade stammar</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6891,10 +6887,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111777499</v>
+        <v>111777467</v>
       </c>
       <c r="B55" t="n">
-        <v>78107</v>
+        <v>89423</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6907,21 +6903,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6453</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6934,10 +6930,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616426.5202303537</v>
+        <v>616413.4864248879</v>
       </c>
       <c r="R55" t="n">
-        <v>7268746.301918368</v>
+        <v>7268760.315060399</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7007,10 +7003,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111777411</v>
+        <v>111777940</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>90678</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7019,35 +7015,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
@@ -7055,13 +7046,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616367.7277224116</v>
+        <v>616438.7745429112</v>
       </c>
       <c r="R56" t="n">
-        <v>7268802.503264537</v>
+        <v>7268803.685732875</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7103,17 +7094,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
       <c r="AE56" t="b">
         <v>0</v>
       </c>
+      <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="b">
         <v>0</v>
       </c>
@@ -7132,10 +7119,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111777447</v>
+        <v>111778005</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7144,25 +7131,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7175,10 +7162,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>616379.7321599644</v>
+        <v>616499.3130462242</v>
       </c>
       <c r="R57" t="n">
-        <v>7268803.814155157</v>
+        <v>7268610.508796399</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7498,10 +7485,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111777331</v>
+        <v>111777494</v>
       </c>
       <c r="B60" t="n">
-        <v>89423</v>
+        <v>90854</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7514,21 +7501,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>2079</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7541,10 +7528,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616362.7639770868</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R60" t="n">
-        <v>7268822.653031595</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7614,10 +7601,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111777467</v>
+        <v>111777447</v>
       </c>
       <c r="B61" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7630,21 +7617,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7657,10 +7644,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>616413.4864248879</v>
+        <v>616379.7321599644</v>
       </c>
       <c r="R61" t="n">
-        <v>7268760.315060399</v>
+        <v>7268803.814155157</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7730,10 +7717,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111778005</v>
+        <v>111777380</v>
       </c>
       <c r="B62" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7742,30 +7729,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7773,10 +7765,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616499.3130462242</v>
+        <v>616414.0528149965</v>
       </c>
       <c r="R62" t="n">
-        <v>7268610.508796399</v>
+        <v>7268860.418718725</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7821,13 +7813,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Skalade stammar</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7971,10 +7967,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111778126</v>
+        <v>111777499</v>
       </c>
       <c r="B64" t="n">
-        <v>89405</v>
+        <v>78107</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7987,21 +7983,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8014,10 +8010,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616202.3044715263</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R64" t="n">
-        <v>7268603.611313918</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8087,10 +8083,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111777940</v>
+        <v>111777411</v>
       </c>
       <c r="B65" t="n">
-        <v>90678</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8099,30 +8095,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8130,13 +8131,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616438.7745429112</v>
+        <v>616367.7277224116</v>
       </c>
       <c r="R65" t="n">
-        <v>7268803.685732875</v>
+        <v>7268802.503264537</v>
       </c>
       <c r="S65" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8178,13 +8179,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736402</v>
+        <v>111736506</v>
       </c>
       <c r="B47" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,26 +5962,31 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5989,13 +5994,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>616333.1117616051</v>
+        <v>616358.6131022752</v>
       </c>
       <c r="R47" t="n">
-        <v>7268857.179896916</v>
+        <v>7268822.486957001</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6037,13 +6042,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
+        </is>
+      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6062,10 +6071,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736268</v>
+        <v>111736257</v>
       </c>
       <c r="B48" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6078,21 +6087,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6178,10 +6187,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736257</v>
+        <v>111736370</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6194,26 +6203,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6221,10 +6235,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616308.8236423519</v>
+        <v>616327.1020967637</v>
       </c>
       <c r="R49" t="n">
-        <v>7268903.133137755</v>
+        <v>7268872.304318298</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6275,7 +6289,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6294,10 +6307,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736405</v>
+        <v>111736402</v>
       </c>
       <c r="B50" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6310,21 +6323,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6410,10 +6423,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736506</v>
+        <v>111736272</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6426,31 +6439,26 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6458,13 +6466,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>616358.6131022752</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R51" t="n">
-        <v>7268822.486957001</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6506,17 +6514,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6535,10 +6539,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736370</v>
+        <v>111736405</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6551,31 +6555,26 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6583,10 +6582,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616327.1020967637</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R52" t="n">
-        <v>7268872.304318298</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6637,6 +6636,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111778126</v>
+        <v>111777499</v>
       </c>
       <c r="B53" t="n">
-        <v>89405</v>
+        <v>78107</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6671,21 +6671,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6698,10 +6698,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616202.3044715263</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R53" t="n">
-        <v>7268603.611313918</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6771,10 +6771,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111777331</v>
+        <v>111777380</v>
       </c>
       <c r="B54" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6787,26 +6787,31 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6814,10 +6819,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616362.7639770868</v>
+        <v>616414.0528149965</v>
       </c>
       <c r="R54" t="n">
-        <v>7268822.653031595</v>
+        <v>7268860.418718725</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6862,13 +6867,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Skalade stammar</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6887,10 +6896,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111777467</v>
+        <v>111777411</v>
       </c>
       <c r="B55" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6903,26 +6912,31 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6930,10 +6944,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616413.4864248879</v>
+        <v>616367.7277224116</v>
       </c>
       <c r="R55" t="n">
-        <v>7268760.315060399</v>
+        <v>7268802.503264537</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6978,13 +6992,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7003,10 +7021,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111777940</v>
+        <v>111778126</v>
       </c>
       <c r="B56" t="n">
-        <v>90678</v>
+        <v>89405</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7015,25 +7033,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7046,13 +7064,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616438.7745429112</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R56" t="n">
-        <v>7268803.685732875</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7119,10 +7137,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111778005</v>
+        <v>111777494</v>
       </c>
       <c r="B57" t="n">
-        <v>89369</v>
+        <v>90854</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7131,25 +7149,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5447</v>
+        <v>2079</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7162,10 +7180,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>616499.3130462242</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R57" t="n">
-        <v>7268610.508796399</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7235,7 +7253,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111777491</v>
+        <v>111778163</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7283,10 +7301,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616426.5202303537</v>
+        <v>616207.2556492372</v>
       </c>
       <c r="R58" t="n">
-        <v>7268746.301918368</v>
+        <v>7268635.7870906</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7333,7 +7351,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Skalade granstammar</t>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7360,10 +7378,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111778163</v>
+        <v>111777467</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7376,31 +7394,26 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7408,10 +7421,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616207.2556492372</v>
+        <v>616413.4864248879</v>
       </c>
       <c r="R59" t="n">
-        <v>7268635.7870906</v>
+        <v>7268760.315060399</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7456,17 +7469,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7485,10 +7494,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111777494</v>
+        <v>111777940</v>
       </c>
       <c r="B60" t="n">
-        <v>90854</v>
+        <v>90678</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7497,25 +7506,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2079</v>
+        <v>4366</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7528,13 +7537,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616426.5202303537</v>
+        <v>616438.7745429112</v>
       </c>
       <c r="R60" t="n">
-        <v>7268746.301918368</v>
+        <v>7268803.685732875</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7717,10 +7726,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111777380</v>
+        <v>111777331</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7733,31 +7742,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7765,10 +7769,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616414.0528149965</v>
+        <v>616362.7639770868</v>
       </c>
       <c r="R62" t="n">
-        <v>7268860.418718725</v>
+        <v>7268822.653031595</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7813,17 +7817,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Skalade stammar</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111778248</v>
+        <v>111777491</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -7880,7 +7880,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616162.9874832245</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R63" t="n">
-        <v>7268630.281087617</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7940,7 +7940,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Skalad gran</t>
+          <t>Skalade granstammar</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7967,10 +7967,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111777499</v>
+        <v>111778005</v>
       </c>
       <c r="B64" t="n">
-        <v>78107</v>
+        <v>89369</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7979,25 +7979,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6453</v>
+        <v>5447</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8010,10 +8010,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616426.5202303537</v>
+        <v>616499.3130462242</v>
       </c>
       <c r="R64" t="n">
-        <v>7268746.301918368</v>
+        <v>7268610.508796399</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111777411</v>
+        <v>111778248</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8121,7 +8121,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färsk spillning</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -8131,10 +8131,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616367.7277224116</v>
+        <v>616162.9874832245</v>
       </c>
       <c r="R65" t="n">
-        <v>7268802.503264537</v>
+        <v>7268630.281087617</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Skalade granstammar</t>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD65" t="b">

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736506</v>
+        <v>111736268</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,31 +5962,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5994,13 +5989,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>616358.6131022752</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R47" t="n">
-        <v>7268822.486957001</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6042,17 +6037,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6071,10 +6062,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736257</v>
+        <v>111736370</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6087,26 +6078,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6114,10 +6110,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>616308.8236423519</v>
+        <v>616327.1020967637</v>
       </c>
       <c r="R48" t="n">
-        <v>7268903.133137755</v>
+        <v>7268872.304318298</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6168,7 +6164,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6187,10 +6182,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736370</v>
+        <v>111736257</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6203,31 +6198,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6235,10 +6225,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616327.1020967637</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R49" t="n">
-        <v>7268872.304318298</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6289,6 +6279,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6423,10 +6414,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736272</v>
+        <v>111736405</v>
       </c>
       <c r="B51" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6439,21 +6430,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6466,10 +6457,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>616308.8236423519</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R51" t="n">
-        <v>7268903.133137755</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6539,10 +6530,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736405</v>
+        <v>111736506</v>
       </c>
       <c r="B52" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6555,26 +6546,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6582,13 +6578,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616333.1117616051</v>
+        <v>616358.6131022752</v>
       </c>
       <c r="R52" t="n">
-        <v>7268857.179896916</v>
+        <v>7268822.486957001</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6630,13 +6626,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
+        </is>
+      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6655,10 +6655,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111777499</v>
+        <v>111778248</v>
       </c>
       <c r="B53" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6671,26 +6671,31 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6698,10 +6703,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616426.5202303537</v>
+        <v>616162.9874832245</v>
       </c>
       <c r="R53" t="n">
-        <v>7268746.301918368</v>
+        <v>7268630.281087617</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6746,13 +6751,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6771,10 +6780,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111777380</v>
+        <v>111777494</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>90854</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6787,31 +6796,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>2079</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6819,10 +6823,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616414.0528149965</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R54" t="n">
-        <v>7268860.418718725</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6867,17 +6871,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Skalade stammar</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111777411</v>
+        <v>111778163</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6944,10 +6944,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616367.7277224116</v>
+        <v>616207.2556492372</v>
       </c>
       <c r="R55" t="n">
-        <v>7268802.503264537</v>
+        <v>7268635.7870906</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Skalade granstammar</t>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7021,10 +7021,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111778126</v>
+        <v>111777331</v>
       </c>
       <c r="B56" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7037,21 +7037,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7064,10 +7064,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616202.3044715263</v>
+        <v>616362.7639770868</v>
       </c>
       <c r="R56" t="n">
-        <v>7268603.611313918</v>
+        <v>7268822.653031595</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7137,10 +7137,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111777494</v>
+        <v>111777380</v>
       </c>
       <c r="B57" t="n">
-        <v>90854</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7153,26 +7153,31 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7180,10 +7185,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>616426.5202303537</v>
+        <v>616414.0528149965</v>
       </c>
       <c r="R57" t="n">
-        <v>7268746.301918368</v>
+        <v>7268860.418718725</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7228,13 +7233,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Skalade stammar</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7253,10 +7262,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111778163</v>
+        <v>111777447</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7269,31 +7278,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7301,10 +7305,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616207.2556492372</v>
+        <v>616379.7321599644</v>
       </c>
       <c r="R58" t="n">
-        <v>7268635.7870906</v>
+        <v>7268803.814155157</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7349,17 +7353,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7610,10 +7610,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111777447</v>
+        <v>111778005</v>
       </c>
       <c r="B61" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7622,25 +7622,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>616379.7321599644</v>
+        <v>616499.3130462242</v>
       </c>
       <c r="R61" t="n">
-        <v>7268803.814155157</v>
+        <v>7268610.508796399</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7726,10 +7726,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111777331</v>
+        <v>111778126</v>
       </c>
       <c r="B62" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7742,21 +7742,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7769,10 +7769,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616362.7639770868</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R62" t="n">
-        <v>7268822.653031595</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111777491</v>
+        <v>111777411</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616426.5202303537</v>
+        <v>616367.7277224116</v>
       </c>
       <c r="R63" t="n">
-        <v>7268746.301918368</v>
+        <v>7268802.503264537</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111778005</v>
+        <v>111777499</v>
       </c>
       <c r="B64" t="n">
-        <v>89369</v>
+        <v>78107</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7979,25 +7979,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5447</v>
+        <v>6453</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8010,10 +8010,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616499.3130462242</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R64" t="n">
-        <v>7268610.508796399</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111778248</v>
+        <v>111777491</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8121,7 +8121,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -8131,10 +8131,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616162.9874832245</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R65" t="n">
-        <v>7268630.281087617</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Skalad gran</t>
+          <t>Skalade granstammar</t>
         </is>
       </c>
       <c r="AD65" t="b">

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736268</v>
+        <v>111736257</v>
       </c>
       <c r="B47" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,21 +5962,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6062,10 +6062,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736370</v>
+        <v>111736402</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6078,31 +6078,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6110,10 +6105,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>616327.1020967637</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R48" t="n">
-        <v>7268872.304318298</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6164,6 +6159,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6182,10 +6178,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736257</v>
+        <v>111736506</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6198,26 +6194,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6225,13 +6226,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616308.8236423519</v>
+        <v>616358.6131022752</v>
       </c>
       <c r="R49" t="n">
-        <v>7268903.133137755</v>
+        <v>7268822.486957001</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6273,13 +6274,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6298,10 +6303,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736402</v>
+        <v>111736370</v>
       </c>
       <c r="B50" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6314,26 +6319,31 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6341,10 +6351,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>616333.1117616051</v>
+        <v>616327.1020967637</v>
       </c>
       <c r="R50" t="n">
-        <v>7268857.179896916</v>
+        <v>7268872.304318298</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6395,7 +6405,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6414,10 +6423,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736405</v>
+        <v>111736268</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6430,21 +6439,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6457,10 +6466,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>616333.1117616051</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R51" t="n">
-        <v>7268857.179896916</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6530,10 +6539,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736506</v>
+        <v>111736405</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6546,31 +6555,26 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6578,13 +6582,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616358.6131022752</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R52" t="n">
-        <v>7268822.486957001</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S52" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6626,17 +6630,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
-        </is>
-      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111778248</v>
+        <v>111778163</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6693,7 +6693,7 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N53" t="inlineStr"/>
@@ -6703,10 +6703,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616162.9874832245</v>
+        <v>616207.2556492372</v>
       </c>
       <c r="R53" t="n">
-        <v>7268630.281087617</v>
+        <v>7268635.7870906</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6780,10 +6780,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111777494</v>
+        <v>111777411</v>
       </c>
       <c r="B54" t="n">
-        <v>90854</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6796,26 +6796,31 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6823,10 +6828,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616426.5202303537</v>
+        <v>616367.7277224116</v>
       </c>
       <c r="R54" t="n">
-        <v>7268746.301918368</v>
+        <v>7268802.503264537</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6871,13 +6876,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6896,10 +6905,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111778163</v>
+        <v>111777499</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>78107</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6912,31 +6921,26 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6944,10 +6948,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616207.2556492372</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R55" t="n">
-        <v>7268635.7870906</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6992,17 +6996,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7021,10 +7021,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111777331</v>
+        <v>111778126</v>
       </c>
       <c r="B56" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7037,21 +7037,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7064,10 +7064,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616362.7639770868</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R56" t="n">
-        <v>7268822.653031595</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111777380</v>
+        <v>111778248</v>
       </c>
       <c r="B57" t="n">
         <v>56398</v>
@@ -7175,7 +7175,7 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färsk spillning</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
@@ -7185,10 +7185,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>616414.0528149965</v>
+        <v>616162.9874832245</v>
       </c>
       <c r="R57" t="n">
-        <v>7268860.418718725</v>
+        <v>7268630.281087617</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7235,7 +7235,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Skalade stammar</t>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7262,10 +7262,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111777447</v>
+        <v>111777940</v>
       </c>
       <c r="B58" t="n">
-        <v>89405</v>
+        <v>90678</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7274,25 +7274,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>4366</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7305,13 +7305,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616379.7321599644</v>
+        <v>616438.7745429112</v>
       </c>
       <c r="R58" t="n">
-        <v>7268803.814155157</v>
+        <v>7268803.685732875</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7378,10 +7378,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111777467</v>
+        <v>111777494</v>
       </c>
       <c r="B59" t="n">
-        <v>89423</v>
+        <v>90854</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7394,21 +7394,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>2079</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7421,10 +7421,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616413.4864248879</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R59" t="n">
-        <v>7268760.315060399</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7494,10 +7494,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111777940</v>
+        <v>111777467</v>
       </c>
       <c r="B60" t="n">
-        <v>90678</v>
+        <v>89423</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7506,25 +7506,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4366</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7537,13 +7537,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616438.7745429112</v>
+        <v>616413.4864248879</v>
       </c>
       <c r="R60" t="n">
-        <v>7268803.685732875</v>
+        <v>7268760.315060399</v>
       </c>
       <c r="S60" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -7610,10 +7610,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111778005</v>
+        <v>111777447</v>
       </c>
       <c r="B61" t="n">
-        <v>89369</v>
+        <v>89405</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7622,25 +7622,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>616499.3130462242</v>
+        <v>616379.7321599644</v>
       </c>
       <c r="R61" t="n">
-        <v>7268610.508796399</v>
+        <v>7268803.814155157</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7726,10 +7726,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111778126</v>
+        <v>111777331</v>
       </c>
       <c r="B62" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7742,21 +7742,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7769,10 +7769,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616202.3044715263</v>
+        <v>616362.7639770868</v>
       </c>
       <c r="R62" t="n">
-        <v>7268603.611313918</v>
+        <v>7268822.653031595</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7842,7 +7842,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111777411</v>
+        <v>111777491</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616367.7277224116</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R63" t="n">
-        <v>7268802.503264537</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7967,10 +7967,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111777499</v>
+        <v>111777380</v>
       </c>
       <c r="B64" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7983,26 +7983,31 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8010,10 +8015,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616426.5202303537</v>
+        <v>616414.0528149965</v>
       </c>
       <c r="R64" t="n">
-        <v>7268746.301918368</v>
+        <v>7268860.418718725</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8058,13 +8063,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Skalade stammar</t>
+        </is>
+      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8083,10 +8092,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111777491</v>
+        <v>111778005</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>89369</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8095,35 +8104,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>5447</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8131,10 +8135,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616426.5202303537</v>
+        <v>616499.3130462242</v>
       </c>
       <c r="R65" t="n">
-        <v>7268746.301918368</v>
+        <v>7268610.508796399</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8179,17 +8183,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD65" t="b">
         <v>0</v>
       </c>
       <c r="AE65" t="b">
         <v>0</v>
       </c>
+      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736257</v>
+        <v>111736272</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>89401</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,21 +5962,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -6062,10 +6062,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736402</v>
+        <v>111736370</v>
       </c>
       <c r="B48" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6078,26 +6078,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6105,10 +6110,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>616333.1117616051</v>
+        <v>616327.1020967637</v>
       </c>
       <c r="R48" t="n">
-        <v>7268857.179896916</v>
+        <v>7268872.304318298</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6159,7 +6164,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6178,10 +6182,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736506</v>
+        <v>111736402</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6194,31 +6198,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6226,13 +6225,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616358.6131022752</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R49" t="n">
-        <v>7268822.486957001</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S49" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6274,17 +6273,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6303,7 +6298,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736370</v>
+        <v>111736525</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6351,13 +6346,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>616327.1020967637</v>
+        <v>616358.6131022752</v>
       </c>
       <c r="R50" t="n">
-        <v>7268872.304318298</v>
+        <v>7268822.486957001</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6423,10 +6418,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736268</v>
+        <v>111736257</v>
       </c>
       <c r="B51" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6439,21 +6434,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6655,7 +6650,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111778163</v>
+        <v>111777411</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6703,10 +6698,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616207.2556492372</v>
+        <v>616367.7277224116</v>
       </c>
       <c r="R53" t="n">
-        <v>7268635.7870906</v>
+        <v>7268802.503264537</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6753,7 +6748,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Skalad gran</t>
+          <t>Skalade granstammar</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6780,10 +6775,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111777411</v>
+        <v>111778126</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6796,31 +6791,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6828,10 +6818,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616367.7277224116</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R54" t="n">
-        <v>7268802.503264537</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6876,17 +6866,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6905,10 +6891,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111777499</v>
+        <v>111778163</v>
       </c>
       <c r="B55" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6921,26 +6907,31 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6948,10 +6939,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616426.5202303537</v>
+        <v>616207.2556492372</v>
       </c>
       <c r="R55" t="n">
-        <v>7268746.301918368</v>
+        <v>7268635.7870906</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6996,13 +6987,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7021,10 +7016,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111778126</v>
+        <v>111777940</v>
       </c>
       <c r="B56" t="n">
-        <v>89405</v>
+        <v>90678</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7033,25 +7028,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>4366</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7064,13 +7059,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616202.3044715263</v>
+        <v>616438.7745429112</v>
       </c>
       <c r="R56" t="n">
-        <v>7268603.611313918</v>
+        <v>7268803.685732875</v>
       </c>
       <c r="S56" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7137,10 +7132,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111778248</v>
+        <v>111777467</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7153,31 +7148,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7185,10 +7175,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>616162.9874832245</v>
+        <v>616413.4864248879</v>
       </c>
       <c r="R57" t="n">
-        <v>7268630.281087617</v>
+        <v>7268760.315060399</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7233,17 +7223,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7262,10 +7248,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111777940</v>
+        <v>111777494</v>
       </c>
       <c r="B58" t="n">
-        <v>90678</v>
+        <v>90854</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7274,25 +7260,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4366</v>
+        <v>2079</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7305,13 +7291,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616438.7745429112</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R58" t="n">
-        <v>7268803.685732875</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7378,10 +7364,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111777494</v>
+        <v>111777331</v>
       </c>
       <c r="B59" t="n">
-        <v>90854</v>
+        <v>89423</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7394,21 +7380,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2079</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7421,10 +7407,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616426.5202303537</v>
+        <v>616362.7639770868</v>
       </c>
       <c r="R59" t="n">
-        <v>7268746.301918368</v>
+        <v>7268822.653031595</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7494,10 +7480,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111777467</v>
+        <v>111777491</v>
       </c>
       <c r="B60" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7510,26 +7496,31 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7537,10 +7528,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616413.4864248879</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R60" t="n">
-        <v>7268760.315060399</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7585,13 +7576,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7610,10 +7605,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111777447</v>
+        <v>111778005</v>
       </c>
       <c r="B61" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7622,25 +7617,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7653,10 +7648,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>616379.7321599644</v>
+        <v>616499.3130462242</v>
       </c>
       <c r="R61" t="n">
-        <v>7268803.814155157</v>
+        <v>7268610.508796399</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7726,10 +7721,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111777331</v>
+        <v>111777447</v>
       </c>
       <c r="B62" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7742,21 +7737,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7769,10 +7764,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616362.7639770868</v>
+        <v>616379.7321599644</v>
       </c>
       <c r="R62" t="n">
-        <v>7268822.653031595</v>
+        <v>7268803.814155157</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7842,7 +7837,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111777491</v>
+        <v>111777380</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -7890,10 +7885,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616426.5202303537</v>
+        <v>616414.0528149965</v>
       </c>
       <c r="R63" t="n">
-        <v>7268746.301918368</v>
+        <v>7268860.418718725</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7940,7 +7935,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Skalade granstammar</t>
+          <t>Skalade stammar</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7967,7 +7962,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111777380</v>
+        <v>111778248</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8005,7 +8000,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färsk spillning</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -8015,10 +8010,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616414.0528149965</v>
+        <v>616162.9874832245</v>
       </c>
       <c r="R64" t="n">
-        <v>7268860.418718725</v>
+        <v>7268630.281087617</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8065,7 +8060,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Skalade stammar</t>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8092,10 +8087,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111778005</v>
+        <v>111777499</v>
       </c>
       <c r="B65" t="n">
-        <v>89369</v>
+        <v>78107</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8104,25 +8099,25 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5447</v>
+        <v>6453</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8135,10 +8130,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616499.3130462242</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R65" t="n">
-        <v>7268610.508796399</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736272</v>
+        <v>111736370</v>
       </c>
       <c r="B47" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,26 +5962,31 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5989,10 +5994,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>616308.8236423519</v>
+        <v>616327.1020967637</v>
       </c>
       <c r="R47" t="n">
-        <v>7268903.133137755</v>
+        <v>7268872.304318298</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6043,7 +6048,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6062,10 +6066,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736370</v>
+        <v>111736405</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6078,31 +6082,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6110,10 +6109,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>616327.1020967637</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R48" t="n">
-        <v>7268872.304318298</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6164,6 +6163,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6298,10 +6298,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736525</v>
+        <v>111736268</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6314,31 +6314,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6346,13 +6341,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>616358.6131022752</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R50" t="n">
-        <v>7268822.486957001</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S50" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6400,6 +6395,7 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6418,10 +6414,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736257</v>
+        <v>111736506</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6434,26 +6430,31 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6461,13 +6462,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>616308.8236423519</v>
+        <v>616358.6131022752</v>
       </c>
       <c r="R51" t="n">
-        <v>7268903.133137755</v>
+        <v>7268822.486957001</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6509,13 +6510,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
+        </is>
+      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
-      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6534,7 +6539,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736405</v>
+        <v>111736257</v>
       </c>
       <c r="B52" t="n">
         <v>77515</v>
@@ -6577,10 +6582,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616333.1117616051</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R52" t="n">
-        <v>7268857.179896916</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6650,7 +6655,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111777411</v>
+        <v>111777380</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6698,10 +6703,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616367.7277224116</v>
+        <v>616414.0528149965</v>
       </c>
       <c r="R53" t="n">
-        <v>7268802.503264537</v>
+        <v>7268860.418718725</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6748,7 +6753,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Skalade granstammar</t>
+          <t>Skalade stammar</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6775,10 +6780,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111778126</v>
+        <v>111777331</v>
       </c>
       <c r="B54" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6791,21 +6796,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6818,10 +6823,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616202.3044715263</v>
+        <v>616362.7639770868</v>
       </c>
       <c r="R54" t="n">
-        <v>7268603.611313918</v>
+        <v>7268822.653031595</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6891,7 +6896,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111778163</v>
+        <v>111777491</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6939,10 +6944,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616207.2556492372</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R55" t="n">
-        <v>7268635.7870906</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6989,7 +6994,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Skalad gran</t>
+          <t>Skalade granstammar</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7016,10 +7021,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111777940</v>
+        <v>111777447</v>
       </c>
       <c r="B56" t="n">
-        <v>90678</v>
+        <v>89405</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7028,25 +7033,25 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7059,13 +7064,13 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616438.7745429112</v>
+        <v>616379.7321599644</v>
       </c>
       <c r="R56" t="n">
-        <v>7268803.685732875</v>
+        <v>7268803.814155157</v>
       </c>
       <c r="S56" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -7132,10 +7137,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111777467</v>
+        <v>111777499</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>78107</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7148,21 +7153,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>6453</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7175,10 +7180,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>616413.4864248879</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R57" t="n">
-        <v>7268760.315060399</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7248,10 +7253,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111777494</v>
+        <v>111777411</v>
       </c>
       <c r="B58" t="n">
-        <v>90854</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7264,26 +7269,31 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7291,10 +7301,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616426.5202303537</v>
+        <v>616367.7277224116</v>
       </c>
       <c r="R58" t="n">
-        <v>7268746.301918368</v>
+        <v>7268802.503264537</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7339,13 +7349,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7364,10 +7378,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111777331</v>
+        <v>111777940</v>
       </c>
       <c r="B59" t="n">
-        <v>89423</v>
+        <v>90678</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7376,25 +7390,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>4366</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7407,13 +7421,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616362.7639770868</v>
+        <v>616438.7745429112</v>
       </c>
       <c r="R59" t="n">
-        <v>7268822.653031595</v>
+        <v>7268803.685732875</v>
       </c>
       <c r="S59" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7480,10 +7494,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111777491</v>
+        <v>111777467</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7496,31 +7510,26 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7528,10 +7537,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616426.5202303537</v>
+        <v>616413.4864248879</v>
       </c>
       <c r="R60" t="n">
-        <v>7268746.301918368</v>
+        <v>7268760.315060399</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7576,17 +7585,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7721,10 +7726,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111777447</v>
+        <v>111777494</v>
       </c>
       <c r="B62" t="n">
-        <v>89405</v>
+        <v>90854</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7737,21 +7742,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>2079</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7764,10 +7769,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616379.7321599644</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R62" t="n">
-        <v>7268803.814155157</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7837,7 +7842,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111777380</v>
+        <v>111778248</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -7875,7 +7880,7 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färsk spillning</t>
         </is>
       </c>
       <c r="N63" t="inlineStr"/>
@@ -7885,10 +7890,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616414.0528149965</v>
+        <v>616162.9874832245</v>
       </c>
       <c r="R63" t="n">
-        <v>7268860.418718725</v>
+        <v>7268630.281087617</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7935,7 +7940,7 @@
       </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>Skalade stammar</t>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7962,7 +7967,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111778248</v>
+        <v>111778163</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -8000,7 +8005,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N64" t="inlineStr"/>
@@ -8010,10 +8015,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616162.9874832245</v>
+        <v>616207.2556492372</v>
       </c>
       <c r="R64" t="n">
-        <v>7268630.281087617</v>
+        <v>7268635.7870906</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8087,10 +8092,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111777499</v>
+        <v>111778126</v>
       </c>
       <c r="B65" t="n">
-        <v>78107</v>
+        <v>89405</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8103,21 +8108,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6453</v>
+        <v>1202</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8130,10 +8135,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616426.5202303537</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R65" t="n">
-        <v>7268746.301918368</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736370</v>
+        <v>111736272</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,31 +5962,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5994,10 +5989,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>616327.1020967637</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R47" t="n">
-        <v>7268872.304318298</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6048,6 +6043,7 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6066,10 +6062,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736405</v>
+        <v>111736525</v>
       </c>
       <c r="B48" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6082,26 +6078,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6109,13 +6110,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>616333.1117616051</v>
+        <v>616358.6131022752</v>
       </c>
       <c r="R48" t="n">
-        <v>7268857.179896916</v>
+        <v>7268822.486957001</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6163,7 +6164,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6182,10 +6182,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736402</v>
+        <v>111736370</v>
       </c>
       <c r="B49" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6198,26 +6198,31 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6225,10 +6230,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616333.1117616051</v>
+        <v>616327.1020967637</v>
       </c>
       <c r="R49" t="n">
-        <v>7268857.179896916</v>
+        <v>7268872.304318298</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6279,7 +6284,6 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
-      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6298,10 +6302,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736268</v>
+        <v>111736257</v>
       </c>
       <c r="B50" t="n">
-        <v>89401</v>
+        <v>77515</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6314,21 +6318,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6414,10 +6418,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736506</v>
+        <v>111736405</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6430,31 +6434,26 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6462,13 +6461,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>616358.6131022752</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R51" t="n">
-        <v>7268822.486957001</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S51" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6510,17 +6509,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
-        </is>
-      </c>
       <c r="AD51" t="b">
         <v>0</v>
       </c>
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
@@ -6539,10 +6534,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736257</v>
+        <v>111736402</v>
       </c>
       <c r="B52" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6555,21 +6550,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6582,10 +6577,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616308.8236423519</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R52" t="n">
-        <v>7268903.133137755</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6655,10 +6650,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111777380</v>
+        <v>111778126</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6671,31 +6666,26 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6703,10 +6693,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616414.0528149965</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R53" t="n">
-        <v>7268860.418718725</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6751,17 +6741,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Skalade stammar</t>
-        </is>
-      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6780,10 +6766,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111777331</v>
+        <v>111778005</v>
       </c>
       <c r="B54" t="n">
-        <v>89423</v>
+        <v>89369</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6792,25 +6778,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6823,10 +6809,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616362.7639770868</v>
+        <v>616499.3130462242</v>
       </c>
       <c r="R54" t="n">
-        <v>7268822.653031595</v>
+        <v>7268610.508796399</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6896,10 +6882,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111777491</v>
+        <v>111777494</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>90854</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6912,31 +6898,26 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>2079</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6992,17 +6973,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -7021,10 +6998,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111777447</v>
+        <v>111777467</v>
       </c>
       <c r="B56" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7037,21 +7014,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7064,10 +7041,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616379.7321599644</v>
+        <v>616413.4864248879</v>
       </c>
       <c r="R56" t="n">
-        <v>7268803.814155157</v>
+        <v>7268760.315060399</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7137,10 +7114,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111777499</v>
+        <v>111777491</v>
       </c>
       <c r="B57" t="n">
-        <v>78107</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7153,26 +7130,31 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7228,13 +7210,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7253,10 +7239,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111777411</v>
+        <v>111777447</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7269,31 +7255,26 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7301,10 +7282,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616367.7277224116</v>
+        <v>616379.7321599644</v>
       </c>
       <c r="R58" t="n">
-        <v>7268802.503264537</v>
+        <v>7268803.814155157</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7349,17 +7330,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7378,10 +7355,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111777940</v>
+        <v>111778163</v>
       </c>
       <c r="B59" t="n">
-        <v>90678</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7390,30 +7367,35 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7421,13 +7403,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616438.7745429112</v>
+        <v>616207.2556492372</v>
       </c>
       <c r="R59" t="n">
-        <v>7268803.685732875</v>
+        <v>7268635.7870906</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7469,13 +7451,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7494,10 +7480,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111777467</v>
+        <v>111777411</v>
       </c>
       <c r="B60" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7510,26 +7496,31 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7537,10 +7528,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616413.4864248879</v>
+        <v>616367.7277224116</v>
       </c>
       <c r="R60" t="n">
-        <v>7268760.315060399</v>
+        <v>7268802.503264537</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7585,13 +7576,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7610,10 +7605,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111778005</v>
+        <v>111778248</v>
       </c>
       <c r="B61" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7622,30 +7617,35 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7653,10 +7653,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>616499.3130462242</v>
+        <v>616162.9874832245</v>
       </c>
       <c r="R61" t="n">
-        <v>7268610.508796399</v>
+        <v>7268630.281087617</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7701,13 +7701,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7726,10 +7730,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111777494</v>
+        <v>111777380</v>
       </c>
       <c r="B62" t="n">
-        <v>90854</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7742,26 +7746,31 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7769,10 +7778,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616426.5202303537</v>
+        <v>616414.0528149965</v>
       </c>
       <c r="R62" t="n">
-        <v>7268746.301918368</v>
+        <v>7268860.418718725</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7817,13 +7826,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Skalade stammar</t>
+        </is>
+      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
-      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7842,10 +7855,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111778248</v>
+        <v>111777940</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>90678</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7854,35 +7867,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -7890,13 +7898,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616162.9874832245</v>
+        <v>616438.7745429112</v>
       </c>
       <c r="R63" t="n">
-        <v>7268630.281087617</v>
+        <v>7268803.685732875</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7938,17 +7946,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -7967,10 +7971,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111778163</v>
+        <v>111777499</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>78107</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7983,31 +7987,26 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8015,10 +8014,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616207.2556492372</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R64" t="n">
-        <v>7268635.7870906</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8063,17 +8062,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -8092,10 +8087,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111778126</v>
+        <v>111777331</v>
       </c>
       <c r="B65" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8108,21 +8103,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8135,10 +8130,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616202.3044715263</v>
+        <v>616362.7639770868</v>
       </c>
       <c r="R65" t="n">
-        <v>7268603.611313918</v>
+        <v>7268822.653031595</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736272</v>
+        <v>111736506</v>
       </c>
       <c r="B47" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,26 +5962,31 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5989,13 +5994,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>616308.8236423519</v>
+        <v>616358.6131022752</v>
       </c>
       <c r="R47" t="n">
-        <v>7268903.133137755</v>
+        <v>7268822.486957001</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6037,13 +6042,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
+        </is>
+      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6062,10 +6071,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736525</v>
+        <v>111736268</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6078,31 +6087,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6110,13 +6114,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>616358.6131022752</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R48" t="n">
-        <v>7268822.486957001</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6164,6 +6168,7 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6182,10 +6187,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736370</v>
+        <v>111736402</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6198,31 +6203,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
@@ -6230,10 +6230,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616327.1020967637</v>
+        <v>616333.1117616051</v>
       </c>
       <c r="R49" t="n">
-        <v>7268872.304318298</v>
+        <v>7268857.179896916</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6284,6 +6284,7 @@
       <c r="AE49" t="b">
         <v>0</v>
       </c>
+      <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="b">
         <v>0</v>
       </c>
@@ -6302,10 +6303,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736257</v>
+        <v>111736370</v>
       </c>
       <c r="B50" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6318,26 +6319,31 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6345,10 +6351,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>616308.8236423519</v>
+        <v>616327.1020967637</v>
       </c>
       <c r="R50" t="n">
-        <v>7268903.133137755</v>
+        <v>7268872.304318298</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6399,7 +6405,6 @@
       <c r="AE50" t="b">
         <v>0</v>
       </c>
-      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6534,10 +6539,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736402</v>
+        <v>111736257</v>
       </c>
       <c r="B52" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6550,21 +6555,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6577,10 +6582,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616333.1117616051</v>
+        <v>616308.8236423519</v>
       </c>
       <c r="R52" t="n">
-        <v>7268857.179896916</v>
+        <v>7268903.133137755</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6650,10 +6655,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111778126</v>
+        <v>111777380</v>
       </c>
       <c r="B53" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6666,26 +6671,31 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6693,10 +6703,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616202.3044715263</v>
+        <v>616414.0528149965</v>
       </c>
       <c r="R53" t="n">
-        <v>7268603.611313918</v>
+        <v>7268860.418718725</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6741,13 +6751,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Skalade stammar</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6766,10 +6780,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111778005</v>
+        <v>111777491</v>
       </c>
       <c r="B54" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6778,30 +6792,35 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6809,10 +6828,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616499.3130462242</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R54" t="n">
-        <v>7268610.508796399</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6857,13 +6876,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
-      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6882,10 +6905,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111777494</v>
+        <v>111778163</v>
       </c>
       <c r="B55" t="n">
-        <v>90854</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6898,26 +6921,31 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6925,10 +6953,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616426.5202303537</v>
+        <v>616207.2556492372</v>
       </c>
       <c r="R55" t="n">
-        <v>7268746.301918368</v>
+        <v>7268635.7870906</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6973,13 +7001,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD55" t="b">
         <v>0</v>
       </c>
       <c r="AE55" t="b">
         <v>0</v>
       </c>
-      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
@@ -6998,10 +7030,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111777467</v>
+        <v>111777499</v>
       </c>
       <c r="B56" t="n">
-        <v>89423</v>
+        <v>78107</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7014,21 +7046,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>6453</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7041,10 +7073,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616413.4864248879</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R56" t="n">
-        <v>7268760.315060399</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7114,10 +7146,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111777491</v>
+        <v>111777447</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7130,31 +7162,26 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -7162,10 +7189,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>616426.5202303537</v>
+        <v>616379.7321599644</v>
       </c>
       <c r="R57" t="n">
-        <v>7268746.301918368</v>
+        <v>7268803.814155157</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7210,17 +7237,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7239,10 +7262,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111777447</v>
+        <v>111778005</v>
       </c>
       <c r="B58" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7251,25 +7274,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7282,10 +7305,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616379.7321599644</v>
+        <v>616499.3130462242</v>
       </c>
       <c r="R58" t="n">
-        <v>7268803.814155157</v>
+        <v>7268610.508796399</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7355,10 +7378,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111778163</v>
+        <v>111777940</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>90678</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7367,35 +7390,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7403,13 +7421,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616207.2556492372</v>
+        <v>616438.7745429112</v>
       </c>
       <c r="R59" t="n">
-        <v>7268635.7870906</v>
+        <v>7268803.685732875</v>
       </c>
       <c r="S59" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7451,17 +7469,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
+      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7480,10 +7494,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111777411</v>
+        <v>111778126</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7496,31 +7510,26 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7528,10 +7537,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616367.7277224116</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R60" t="n">
-        <v>7268802.503264537</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7576,17 +7585,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>
@@ -7730,7 +7735,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111777380</v>
+        <v>111777411</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7778,10 +7783,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616414.0528149965</v>
+        <v>616367.7277224116</v>
       </c>
       <c r="R62" t="n">
-        <v>7268860.418718725</v>
+        <v>7268802.503264537</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7828,7 +7833,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Skalade stammar</t>
+          <t>Skalade granstammar</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7855,10 +7860,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111777940</v>
+        <v>111777494</v>
       </c>
       <c r="B63" t="n">
-        <v>90678</v>
+        <v>90854</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7867,25 +7872,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4366</v>
+        <v>2079</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7898,13 +7903,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616438.7745429112</v>
+        <v>616426.5202303537</v>
       </c>
       <c r="R63" t="n">
-        <v>7268803.685732875</v>
+        <v>7268746.301918368</v>
       </c>
       <c r="S63" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7971,10 +7976,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111777499</v>
+        <v>111777331</v>
       </c>
       <c r="B64" t="n">
-        <v>78107</v>
+        <v>89423</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7987,21 +7992,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6453</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8014,10 +8019,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616426.5202303537</v>
+        <v>616362.7639770868</v>
       </c>
       <c r="R64" t="n">
-        <v>7268746.301918368</v>
+        <v>7268822.653031595</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8087,7 +8092,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111777331</v>
+        <v>111777467</v>
       </c>
       <c r="B65" t="n">
         <v>89423</v>
@@ -8130,10 +8135,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616362.7639770868</v>
+        <v>616413.4864248879</v>
       </c>
       <c r="R65" t="n">
-        <v>7268822.653031595</v>
+        <v>7268760.315060399</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -7262,10 +7262,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111778005</v>
+        <v>111777940</v>
       </c>
       <c r="B58" t="n">
-        <v>89369</v>
+        <v>90678</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7278,21 +7278,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5447</v>
+        <v>4366</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7305,13 +7305,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616499.3130462242</v>
+        <v>616438.7745429112</v>
       </c>
       <c r="R58" t="n">
-        <v>7268610.508796399</v>
+        <v>7268803.685732875</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7378,10 +7378,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111777940</v>
+        <v>111778126</v>
       </c>
       <c r="B59" t="n">
-        <v>90678</v>
+        <v>89405</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7390,25 +7390,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616438.7745429112</v>
+        <v>616202.3044715263</v>
       </c>
       <c r="R59" t="n">
-        <v>7268803.685732875</v>
+        <v>7268603.611313918</v>
       </c>
       <c r="S59" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7494,10 +7494,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111778126</v>
+        <v>111778005</v>
       </c>
       <c r="B60" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7506,25 +7506,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7537,10 +7537,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616202.3044715263</v>
+        <v>616499.3130462242</v>
       </c>
       <c r="R60" t="n">
-        <v>7268603.611313918</v>
+        <v>7268610.508796399</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736506</v>
+        <v>111736272</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89401</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,31 +5962,26 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5994,13 +5989,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>616358.6131022752</v>
+        <v>616309</v>
       </c>
       <c r="R47" t="n">
-        <v>7268822.486957001</v>
+        <v>7268903</v>
       </c>
       <c r="S47" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6027,32 +6022,18 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6071,10 +6052,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736268</v>
+        <v>111736506</v>
       </c>
       <c r="B48" t="n">
-        <v>89401</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6087,26 +6068,31 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -6114,13 +6100,13 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>616308.8236423519</v>
+        <v>616359</v>
       </c>
       <c r="R48" t="n">
-        <v>7268903.133137755</v>
+        <v>7268822</v>
       </c>
       <c r="S48" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -6147,19 +6133,14 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6168,7 +6149,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6187,10 +6167,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736402</v>
+        <v>111736257</v>
       </c>
       <c r="B49" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6203,21 +6183,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6230,10 +6210,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616333.1117616051</v>
+        <v>616309</v>
       </c>
       <c r="R49" t="n">
-        <v>7268857.179896916</v>
+        <v>7268903</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6263,19 +6243,9 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6303,10 +6273,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736370</v>
+        <v>111736405</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6319,31 +6289,26 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -6351,10 +6316,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>616327.1020967637</v>
+        <v>616333</v>
       </c>
       <c r="R50" t="n">
-        <v>7268872.304318298</v>
+        <v>7268857</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6384,27 +6349,18 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
       <c r="AE50" t="b">
         <v>0</v>
       </c>
+      <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="b">
         <v>0</v>
       </c>
@@ -6423,10 +6379,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736405</v>
+        <v>111736402</v>
       </c>
       <c r="B51" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6439,21 +6395,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6466,10 +6422,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>616333.1117616051</v>
+        <v>616333</v>
       </c>
       <c r="R51" t="n">
-        <v>7268857.179896916</v>
+        <v>7268857</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6499,19 +6455,9 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6539,10 +6485,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736257</v>
+        <v>111736370</v>
       </c>
       <c r="B52" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6555,26 +6501,31 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6582,10 +6533,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616308.8236423519</v>
+        <v>616327</v>
       </c>
       <c r="R52" t="n">
-        <v>7268903.133137755</v>
+        <v>7268872</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6615,28 +6566,17 @@
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-08-27</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD52" t="b">
         <v>0</v>
       </c>
       <c r="AE52" t="b">
         <v>0</v>
       </c>
-      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6655,10 +6595,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111777380</v>
+        <v>111777940</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>90678</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6667,35 +6607,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>4366</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6703,13 +6638,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616414.0528149965</v>
+        <v>616439</v>
       </c>
       <c r="R53" t="n">
-        <v>7268860.418718725</v>
+        <v>7268804</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6736,32 +6671,18 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Skalade stammar</t>
-        </is>
-      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6780,7 +6701,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111777491</v>
+        <v>111777411</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6828,10 +6749,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616426.5202303537</v>
+        <v>616368</v>
       </c>
       <c r="R54" t="n">
-        <v>7268746.301918368</v>
+        <v>7268803</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6861,19 +6782,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -6905,7 +6816,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111778163</v>
+        <v>111777380</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6953,10 +6864,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616207.2556492372</v>
+        <v>616414</v>
       </c>
       <c r="R55" t="n">
-        <v>7268635.7870906</v>
+        <v>7268860</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6986,24 +6897,14 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Skalad gran</t>
+          <t>Skalade stammar</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7030,10 +6931,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111777499</v>
+        <v>111777494</v>
       </c>
       <c r="B56" t="n">
-        <v>78107</v>
+        <v>90854</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7046,21 +6947,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -7073,10 +6974,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>616426.5202303537</v>
+        <v>616427</v>
       </c>
       <c r="R56" t="n">
-        <v>7268746.301918368</v>
+        <v>7268746</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7106,19 +7007,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7146,10 +7037,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111777447</v>
+        <v>111777499</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>78107</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7162,21 +7053,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>6453</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7189,10 +7080,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>616379.7321599644</v>
+        <v>616427</v>
       </c>
       <c r="R57" t="n">
-        <v>7268803.814155157</v>
+        <v>7268746</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7222,19 +7113,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7262,10 +7143,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111777940</v>
+        <v>111777447</v>
       </c>
       <c r="B58" t="n">
-        <v>90678</v>
+        <v>89405</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7274,25 +7155,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4366</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7305,13 +7186,13 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616438.7745429112</v>
+        <v>616380</v>
       </c>
       <c r="R58" t="n">
-        <v>7268803.685732875</v>
+        <v>7268804</v>
       </c>
       <c r="S58" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -7338,19 +7219,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7378,10 +7249,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111778126</v>
+        <v>111778005</v>
       </c>
       <c r="B59" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7390,25 +7261,25 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -7421,10 +7292,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616202.3044715263</v>
+        <v>616499</v>
       </c>
       <c r="R59" t="n">
-        <v>7268603.611313918</v>
+        <v>7268611</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7454,19 +7325,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7494,10 +7355,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111778005</v>
+        <v>111777467</v>
       </c>
       <c r="B60" t="n">
-        <v>89369</v>
+        <v>89423</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7506,25 +7367,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7537,10 +7398,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616499.3130462242</v>
+        <v>616413</v>
       </c>
       <c r="R60" t="n">
-        <v>7268610.508796399</v>
+        <v>7268760</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7570,19 +7431,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7610,7 +7461,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111778248</v>
+        <v>111778163</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7648,7 +7499,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>färsk spillning</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
@@ -7658,10 +7509,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>616162.9874832245</v>
+        <v>616207</v>
       </c>
       <c r="R61" t="n">
-        <v>7268630.281087617</v>
+        <v>7268636</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7691,19 +7542,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC61" t="inlineStr">
@@ -7735,10 +7576,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111777411</v>
+        <v>111777331</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7751,31 +7592,26 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
@@ -7783,10 +7619,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616367.7277224116</v>
+        <v>616363</v>
       </c>
       <c r="R62" t="n">
-        <v>7268802.503264537</v>
+        <v>7268823</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7816,32 +7652,18 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD62" t="b">
         <v>0</v>
       </c>
       <c r="AE62" t="b">
         <v>0</v>
       </c>
+      <c r="AF62" t="inlineStr"/>
       <c r="AG62" t="b">
         <v>0</v>
       </c>
@@ -7860,10 +7682,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111777494</v>
+        <v>111778248</v>
       </c>
       <c r="B63" t="n">
-        <v>90854</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7876,26 +7698,31 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -7903,10 +7730,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616426.5202303537</v>
+        <v>616163</v>
       </c>
       <c r="R63" t="n">
-        <v>7268746.301918368</v>
+        <v>7268630</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7936,19 +7763,14 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7957,7 +7779,6 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -7976,10 +7797,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111777331</v>
+        <v>111778126</v>
       </c>
       <c r="B64" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7992,21 +7813,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8019,10 +7840,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616362.7639770868</v>
+        <v>616202</v>
       </c>
       <c r="R64" t="n">
-        <v>7268822.653031595</v>
+        <v>7268604</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8052,19 +7873,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8092,10 +7903,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111777467</v>
+        <v>111777491</v>
       </c>
       <c r="B65" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8108,26 +7919,31 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8135,10 +7951,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616413.4864248879</v>
+        <v>616427</v>
       </c>
       <c r="R65" t="n">
-        <v>7268760.315060399</v>
+        <v>7268746</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8168,19 +7984,14 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8189,7 +8000,6 @@
       <c r="AE65" t="b">
         <v>0</v>
       </c>
-      <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="b">
         <v>0</v>
       </c>
@@ -8251,10 +8061,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>616215.0940430191</v>
+        <v>616215</v>
       </c>
       <c r="R66" t="n">
-        <v>7268647.728540022</v>
+        <v>7268648</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8284,19 +8094,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 25917-2023.xlsx
+++ b/artfynd/A 25917-2023.xlsx
@@ -1156,10 +1156,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111253338</v>
+        <v>111253181</v>
       </c>
       <c r="B6" t="n">
-        <v>77186</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1172,21 +1172,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>353</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>616349.8762652914</v>
+        <v>616402.3138997222</v>
       </c>
       <c r="R6" t="n">
-        <v>7268739.497257653</v>
+        <v>7268842.09233178</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111252746</v>
+        <v>111736370</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1288,26 +1288,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1315,13 +1320,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616173.9482352135</v>
+        <v>616327</v>
       </c>
       <c r="R7" t="n">
-        <v>7268647.330667435</v>
+        <v>7268872</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1345,22 +1350,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1369,7 +1364,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1388,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111253698</v>
+        <v>111736268</v>
       </c>
       <c r="B8" t="n">
-        <v>77267</v>
+        <v>89401</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,21 +1398,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6446</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1431,13 +1425,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616357.0091243802</v>
+        <v>616309</v>
       </c>
       <c r="R8" t="n">
-        <v>7268571.588119661</v>
+        <v>7268903</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1461,22 +1455,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1504,10 +1488,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111253092</v>
+        <v>111736402</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1520,21 +1504,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1547,13 +1531,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>616339.8834939363</v>
+        <v>616333</v>
       </c>
       <c r="R9" t="n">
-        <v>7268802.219853354</v>
+        <v>7268857</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1577,22 +1561,12 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1620,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111253880</v>
+        <v>111736257</v>
       </c>
       <c r="B10" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,25 +1606,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1663,13 +1637,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>616445.5974736148</v>
+        <v>616309</v>
       </c>
       <c r="R10" t="n">
-        <v>7268674.80549312</v>
+        <v>7268903</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1693,22 +1667,12 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1736,10 +1700,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111253147</v>
+        <v>111736405</v>
       </c>
       <c r="B11" t="n">
-        <v>78612</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1748,25 +1712,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6464</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1779,13 +1743,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>616334.7038700996</v>
+        <v>616333</v>
       </c>
       <c r="R11" t="n">
-        <v>7268817.377759938</v>
+        <v>7268857</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1809,22 +1773,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1852,10 +1806,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111252730</v>
+        <v>111777380</v>
       </c>
       <c r="B12" t="n">
-        <v>89686</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1868,26 +1822,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1895,13 +1854,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>616160.8644792374</v>
+        <v>616414</v>
       </c>
       <c r="R12" t="n">
-        <v>7268652.20691471</v>
+        <v>7268860</v>
       </c>
       <c r="S12" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1925,22 +1884,17 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-29</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2023-07-03</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Skalade stammar</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1949,7 +1903,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1968,10 +1921,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111254201</v>
+        <v>111253338</v>
       </c>
       <c r="B13" t="n">
-        <v>89686</v>
+        <v>77186</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1984,21 +1937,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>658</v>
+        <v>353</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2011,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>616481.4461878912</v>
+        <v>616349.8762652914</v>
       </c>
       <c r="R13" t="n">
-        <v>7268371.399515979</v>
+        <v>7268739.497257653</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2084,10 +2037,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111254290</v>
+        <v>111252746</v>
       </c>
       <c r="B14" t="n">
-        <v>77186</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2100,21 +2053,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2127,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>616666.8483334343</v>
+        <v>616173.9482352135</v>
       </c>
       <c r="R14" t="n">
-        <v>7268175.722150465</v>
+        <v>7268647.330667435</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2200,10 +2153,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111254964</v>
+        <v>111253698</v>
       </c>
       <c r="B15" t="n">
-        <v>89646</v>
+        <v>77267</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2212,25 +2165,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>65</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2243,10 +2196,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>616283.0432243603</v>
+        <v>616357.0091243802</v>
       </c>
       <c r="R15" t="n">
-        <v>7268705.678047526</v>
+        <v>7268571.588119661</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2316,10 +2269,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111253784</v>
+        <v>111253092</v>
       </c>
       <c r="B16" t="n">
-        <v>77186</v>
+        <v>78107</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2332,21 +2285,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2359,10 +2312,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>616400.8149758804</v>
+        <v>616339.8834939363</v>
       </c>
       <c r="R16" t="n">
-        <v>7268651.002295173</v>
+        <v>7268802.219853354</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2432,10 +2385,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111254946</v>
+        <v>111253880</v>
       </c>
       <c r="B17" t="n">
-        <v>89369</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2448,21 +2401,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2475,10 +2428,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>616416.7370724363</v>
+        <v>616445.5974736148</v>
       </c>
       <c r="R17" t="n">
-        <v>7268575.224019129</v>
+        <v>7268674.80549312</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2548,10 +2501,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111254353</v>
+        <v>111253147</v>
       </c>
       <c r="B18" t="n">
-        <v>89558</v>
+        <v>78612</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,25 +2513,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1503</v>
+        <v>6464</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2591,10 +2544,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>616748.8137777862</v>
+        <v>616334.7038700996</v>
       </c>
       <c r="R18" t="n">
-        <v>7268267.897773226</v>
+        <v>7268817.377759938</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2664,10 +2617,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111253794</v>
+        <v>111252730</v>
       </c>
       <c r="B19" t="n">
-        <v>77267</v>
+        <v>89686</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2680,21 +2633,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6446</v>
+        <v>658</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2707,10 +2660,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>616404.4687667027</v>
+        <v>616160.8644792374</v>
       </c>
       <c r="R19" t="n">
-        <v>7268684.372038134</v>
+        <v>7268652.20691471</v>
       </c>
       <c r="S19" t="n">
         <v>25</v>
@@ -2780,10 +2733,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111252817</v>
+        <v>111254201</v>
       </c>
       <c r="B20" t="n">
-        <v>78107</v>
+        <v>89686</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2796,21 +2749,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6453</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2823,10 +2776,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>616244.7509416816</v>
+        <v>616481.4461878912</v>
       </c>
       <c r="R20" t="n">
-        <v>7268665.110124372</v>
+        <v>7268371.399515979</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2896,10 +2849,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111253954</v>
+        <v>111254290</v>
       </c>
       <c r="B21" t="n">
-        <v>81248</v>
+        <v>77186</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2912,21 +2865,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1312</v>
+        <v>353</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2939,10 +2892,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>616466.3363017822</v>
+        <v>616666.8483334343</v>
       </c>
       <c r="R21" t="n">
-        <v>7268676.051166133</v>
+        <v>7268175.722150465</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3012,10 +2965,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111254040</v>
+        <v>111254964</v>
       </c>
       <c r="B22" t="n">
-        <v>77268</v>
+        <v>89646</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3024,25 +2977,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228912</v>
+        <v>65</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3055,10 +3008,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>616450.0288772837</v>
+        <v>616283.0432243603</v>
       </c>
       <c r="R22" t="n">
-        <v>7268481.034433298</v>
+        <v>7268705.678047526</v>
       </c>
       <c r="S22" t="n">
         <v>25</v>
@@ -3128,10 +3081,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111254193</v>
+        <v>111253784</v>
       </c>
       <c r="B23" t="n">
-        <v>89419</v>
+        <v>77186</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3144,21 +3097,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1204</v>
+        <v>353</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3171,10 +3124,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>616481.4461878912</v>
+        <v>616400.8149758804</v>
       </c>
       <c r="R23" t="n">
-        <v>7268371.399515979</v>
+        <v>7268651.002295173</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3244,10 +3197,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111254229</v>
+        <v>111254946</v>
       </c>
       <c r="B24" t="n">
-        <v>89558</v>
+        <v>89369</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3256,25 +3209,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1503</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3287,10 +3240,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>616587.4452544958</v>
+        <v>616416.7370724363</v>
       </c>
       <c r="R24" t="n">
-        <v>7268299.638246101</v>
+        <v>7268575.224019129</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3360,10 +3313,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111253627</v>
+        <v>111254353</v>
       </c>
       <c r="B25" t="n">
-        <v>90854</v>
+        <v>89558</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3372,25 +3325,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2079</v>
+        <v>1503</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3403,10 +3356,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>616367.8880224366</v>
+        <v>616748.8137777862</v>
       </c>
       <c r="R25" t="n">
-        <v>7268642.624688186</v>
+        <v>7268267.897773226</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3476,10 +3429,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111252857</v>
+        <v>111253794</v>
       </c>
       <c r="B26" t="n">
-        <v>77186</v>
+        <v>77267</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3492,21 +3445,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3519,10 +3472,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>616275.2881472342</v>
+        <v>616404.4687667027</v>
       </c>
       <c r="R26" t="n">
-        <v>7268691.663500885</v>
+        <v>7268684.372038134</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3592,10 +3545,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111254260</v>
+        <v>111252817</v>
       </c>
       <c r="B27" t="n">
-        <v>77186</v>
+        <v>78107</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3608,30 +3561,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3639,10 +3588,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>616654.3081107945</v>
+        <v>616244.7509416816</v>
       </c>
       <c r="R27" t="n">
-        <v>7268208.448433449</v>
+        <v>7268665.110124372</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3712,10 +3661,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111253213</v>
+        <v>111253954</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>81248</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3728,30 +3677,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3759,10 +3704,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>616380.8443888725</v>
+        <v>616466.3363017822</v>
       </c>
       <c r="R28" t="n">
-        <v>7268796.798990206</v>
+        <v>7268676.051166133</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3832,10 +3777,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111253264</v>
+        <v>111254040</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3848,31 +3793,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3880,10 +3820,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>616380.1963899857</v>
+        <v>616450.0288772837</v>
       </c>
       <c r="R29" t="n">
-        <v>7268781.82311049</v>
+        <v>7268481.034433298</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -3928,17 +3868,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Skalad klen gran</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3957,10 +3893,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111253599</v>
+        <v>111254193</v>
       </c>
       <c r="B30" t="n">
-        <v>89330</v>
+        <v>89419</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3973,21 +3909,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3242</v>
+        <v>1204</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vitplätt</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Chaetodermella luna</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4000,10 +3936,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>616339.8934839577</v>
+        <v>616481.4461878912</v>
       </c>
       <c r="R30" t="n">
-        <v>7268656.455437001</v>
+        <v>7268371.399515979</v>
       </c>
       <c r="S30" t="n">
         <v>25</v>
@@ -4073,10 +4009,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111253181</v>
+        <v>111254229</v>
       </c>
       <c r="B31" t="n">
-        <v>89423</v>
+        <v>89558</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4085,25 +4021,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>1503</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4116,10 +4052,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>616402.3138997222</v>
+        <v>616587.4452544958</v>
       </c>
       <c r="R31" t="n">
-        <v>7268842.09233178</v>
+        <v>7268299.638246101</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4189,10 +4125,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111254387</v>
+        <v>111253627</v>
       </c>
       <c r="B32" t="n">
-        <v>56414</v>
+        <v>90854</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4205,31 +4141,26 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>2079</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4237,10 +4168,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>616615.1582897741</v>
+        <v>616367.8880224366</v>
       </c>
       <c r="R32" t="n">
-        <v>7268375.926226165</v>
+        <v>7268642.624688186</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4291,6 +4222,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>
@@ -4309,10 +4241,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111253719</v>
+        <v>111252857</v>
       </c>
       <c r="B33" t="n">
-        <v>77268</v>
+        <v>77186</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4325,21 +4257,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4352,10 +4284,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>616371.8042559561</v>
+        <v>616275.2881472342</v>
       </c>
       <c r="R33" t="n">
-        <v>7268575.917784734</v>
+        <v>7268691.663500885</v>
       </c>
       <c r="S33" t="n">
         <v>25</v>
@@ -4425,10 +4357,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111252623</v>
+        <v>111254260</v>
       </c>
       <c r="B34" t="n">
-        <v>77515</v>
+        <v>77186</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4441,26 +4373,30 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
@@ -4468,10 +4404,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>616156.5003672343</v>
+        <v>616654.3081107945</v>
       </c>
       <c r="R34" t="n">
-        <v>7268678.195968762</v>
+        <v>7268208.448433449</v>
       </c>
       <c r="S34" t="n">
         <v>25</v>
@@ -4541,10 +4477,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111252876</v>
+        <v>111253213</v>
       </c>
       <c r="B35" t="n">
-        <v>89558</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4553,30 +4489,34 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1503</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4584,10 +4524,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>616275.2881472342</v>
+        <v>616380.8443888725</v>
       </c>
       <c r="R35" t="n">
-        <v>7268691.663500885</v>
+        <v>7268796.798990206</v>
       </c>
       <c r="S35" t="n">
         <v>25</v>
@@ -4657,10 +4597,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111254922</v>
+        <v>111253264</v>
       </c>
       <c r="B36" t="n">
-        <v>89646</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4669,30 +4609,35 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>65</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4700,10 +4645,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>616419.6929341245</v>
+        <v>616380.1963899857</v>
       </c>
       <c r="R36" t="n">
-        <v>7268584.479073004</v>
+        <v>7268781.82311049</v>
       </c>
       <c r="S36" t="n">
         <v>25</v>
@@ -4748,13 +4693,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Skalad klen gran</t>
+        </is>
+      </c>
       <c r="AD36" t="b">
         <v>0</v>
       </c>
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
@@ -4773,10 +4722,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111254070</v>
+        <v>111253599</v>
       </c>
       <c r="B37" t="n">
-        <v>77268</v>
+        <v>89330</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4789,21 +4738,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>228912</v>
+        <v>3242</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vitplätt</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Chaetodermella luna</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Romell ex D.P.Rogers &amp; H.S.Jacks.) Rauschert</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4816,10 +4765,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>616467.3814644309</v>
+        <v>616339.8934839577</v>
       </c>
       <c r="R37" t="n">
-        <v>7268463.039678532</v>
+        <v>7268656.455437001</v>
       </c>
       <c r="S37" t="n">
         <v>25</v>
@@ -4889,10 +4838,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111252609</v>
+        <v>111254387</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4905,16 +4854,16 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -4937,10 +4886,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>616162.9632538864</v>
+        <v>616615.1582897741</v>
       </c>
       <c r="R38" t="n">
-        <v>7268714.168752246</v>
+        <v>7268375.926226165</v>
       </c>
       <c r="S38" t="n">
         <v>25</v>
@@ -4983,11 +4932,6 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Flera skalade klena granar</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5014,10 +4958,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111253652</v>
+        <v>111253719</v>
       </c>
       <c r="B39" t="n">
-        <v>78107</v>
+        <v>77268</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5030,21 +4974,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5057,10 +5001,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>616345.9671296075</v>
+        <v>616371.8042559561</v>
       </c>
       <c r="R39" t="n">
-        <v>7268577.376012423</v>
+        <v>7268575.917784734</v>
       </c>
       <c r="S39" t="n">
         <v>25</v>
@@ -5130,10 +5074,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111253434</v>
+        <v>111252623</v>
       </c>
       <c r="B40" t="n">
-        <v>90666</v>
+        <v>77515</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5142,25 +5086,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5173,10 +5117,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>616352.5637576731</v>
+        <v>616156.5003672343</v>
       </c>
       <c r="R40" t="n">
-        <v>7268682.710435705</v>
+        <v>7268678.195968762</v>
       </c>
       <c r="S40" t="n">
         <v>25</v>
@@ -5246,10 +5190,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111252732</v>
+        <v>111252876</v>
       </c>
       <c r="B41" t="n">
-        <v>89405</v>
+        <v>89558</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5258,25 +5202,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>1503</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5289,10 +5233,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>616160.8644792374</v>
+        <v>616275.2881472342</v>
       </c>
       <c r="R41" t="n">
-        <v>7268652.20691471</v>
+        <v>7268691.663500885</v>
       </c>
       <c r="S41" t="n">
         <v>25</v>
@@ -5362,10 +5306,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111252649</v>
+        <v>111254922</v>
       </c>
       <c r="B42" t="n">
-        <v>56414</v>
+        <v>89646</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5374,35 +5318,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100049</v>
+        <v>65</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5410,10 +5349,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>616158.7061250493</v>
+        <v>616419.6929341245</v>
       </c>
       <c r="R42" t="n">
-        <v>7268654.19717967</v>
+        <v>7268584.479073004</v>
       </c>
       <c r="S42" t="n">
         <v>25</v>
@@ -5464,6 +5403,7 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5482,10 +5422,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111253845</v>
+        <v>111254070</v>
       </c>
       <c r="B43" t="n">
-        <v>89369</v>
+        <v>77268</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5494,25 +5434,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5447</v>
+        <v>228912</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5525,10 +5465,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>616420.2897608363</v>
+        <v>616467.3814644309</v>
       </c>
       <c r="R43" t="n">
-        <v>7268538.40363889</v>
+        <v>7268463.039678532</v>
       </c>
       <c r="S43" t="n">
         <v>25</v>
@@ -5598,10 +5538,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111254433</v>
+        <v>111252609</v>
       </c>
       <c r="B44" t="n">
-        <v>90854</v>
+        <v>56398</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5614,26 +5554,31 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2079</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
@@ -5641,10 +5586,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>616536.6424337096</v>
+        <v>616162.9632538864</v>
       </c>
       <c r="R44" t="n">
-        <v>7268509.007133822</v>
+        <v>7268714.168752246</v>
       </c>
       <c r="S44" t="n">
         <v>25</v>
@@ -5689,13 +5634,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Flera skalade klena granar</t>
+        </is>
+      </c>
       <c r="AD44" t="b">
         <v>0</v>
       </c>
       <c r="AE44" t="b">
         <v>0</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
       <c r="AG44" t="b">
         <v>0</v>
       </c>
@@ -5714,10 +5663,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111254011</v>
+        <v>111253652</v>
       </c>
       <c r="B45" t="n">
-        <v>77515</v>
+        <v>78107</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5730,21 +5679,21 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6425</v>
+        <v>6453</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
@@ -5757,10 +5706,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>616476.6475364392</v>
+        <v>616345.9671296075</v>
       </c>
       <c r="R45" t="n">
-        <v>7268730.036465613</v>
+        <v>7268577.376012423</v>
       </c>
       <c r="S45" t="n">
         <v>25</v>
@@ -5830,10 +5779,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111253685</v>
+        <v>111253434</v>
       </c>
       <c r="B46" t="n">
-        <v>78107</v>
+        <v>90666</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5842,25 +5791,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5873,10 +5822,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>616357.0091243802</v>
+        <v>616352.5637576731</v>
       </c>
       <c r="R46" t="n">
-        <v>7268571.588119661</v>
+        <v>7268682.710435705</v>
       </c>
       <c r="S46" t="n">
         <v>25</v>
@@ -5946,10 +5895,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111736272</v>
+        <v>111252732</v>
       </c>
       <c r="B47" t="n">
-        <v>89401</v>
+        <v>89405</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5962,21 +5911,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5989,13 +5938,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>616309</v>
+        <v>616160.8644792374</v>
       </c>
       <c r="R47" t="n">
-        <v>7268903</v>
+        <v>7268652.20691471</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6019,12 +5968,22 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6052,10 +6011,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111736506</v>
+        <v>111252649</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6068,16 +6027,16 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -6090,7 +6049,7 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>födosökande</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N48" t="inlineStr"/>
@@ -6100,10 +6059,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>616359</v>
+        <v>616158.7061250493</v>
       </c>
       <c r="R48" t="n">
-        <v>7268822</v>
+        <v>7268654.19717967</v>
       </c>
       <c r="S48" t="n">
         <v>25</v>
@@ -6130,17 +6089,22 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6167,10 +6131,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111736257</v>
+        <v>111253845</v>
       </c>
       <c r="B49" t="n">
-        <v>77515</v>
+        <v>89369</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6179,25 +6143,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6210,13 +6174,13 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>616309</v>
+        <v>616420.2897608363</v>
       </c>
       <c r="R49" t="n">
-        <v>7268903</v>
+        <v>7268538.40363889</v>
       </c>
       <c r="S49" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
@@ -6240,12 +6204,22 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6273,10 +6247,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111736405</v>
+        <v>111254433</v>
       </c>
       <c r="B50" t="n">
-        <v>77515</v>
+        <v>90854</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6289,21 +6263,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>2079</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6316,13 +6290,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>616333</v>
+        <v>616536.6424337096</v>
       </c>
       <c r="R50" t="n">
-        <v>7268857</v>
+        <v>7268509.007133822</v>
       </c>
       <c r="S50" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6346,12 +6320,22 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6379,10 +6363,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111736402</v>
+        <v>111254011</v>
       </c>
       <c r="B51" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6395,21 +6379,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6422,13 +6406,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>616333</v>
+        <v>616476.6475364392</v>
       </c>
       <c r="R51" t="n">
-        <v>7268857</v>
+        <v>7268730.036465613</v>
       </c>
       <c r="S51" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6452,12 +6436,22 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6485,10 +6479,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111736370</v>
+        <v>111253685</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>78107</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6501,31 +6495,26 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6533,13 +6522,13 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>616327</v>
+        <v>616357.0091243802</v>
       </c>
       <c r="R52" t="n">
-        <v>7268872</v>
+        <v>7268571.588119661</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -6563,12 +6552,22 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2023-08-27</t>
+          <t>2023-07-03</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6577,6 +6576,7 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
@@ -6595,10 +6595,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111777940</v>
+        <v>111736506</v>
       </c>
       <c r="B53" t="n">
-        <v>90678</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6607,30 +6607,35 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>4366</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
@@ -6638,10 +6643,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>616439</v>
+        <v>616359</v>
       </c>
       <c r="R53" t="n">
-        <v>7268804</v>
+        <v>7268822</v>
       </c>
       <c r="S53" t="n">
         <v>25</v>
@@ -6668,12 +6673,17 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-27</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>2023-08-29</t>
+          <t>2023-08-27</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Födosökande i gransumpskog. Observerades i över en timme</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6682,7 +6692,6 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6701,10 +6710,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111777411</v>
+        <v>111777447</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6717,31 +6726,26 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6749,10 +6753,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>616368</v>
+        <v>616380</v>
       </c>
       <c r="R54" t="n">
-        <v>7268803</v>
+        <v>7268804</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6787,17 +6791,13 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Skalade granstammar</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
       <c r="AE54" t="b">
         <v>0</v>
       </c>
+      <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="b">
         <v>0</v>
       </c>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111777380</v>
+        <v>111777491</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6864,10 +6864,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>616414</v>
+        <v>616427</v>
       </c>
       <c r="R55" t="n">
-        <v>7268860</v>
+        <v>7268746</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Skalade stammar</t>
+          <t>Skalade granstammar</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7037,10 +7037,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111777499</v>
+        <v>111777940</v>
       </c>
       <c r="B57" t="n">
-        <v>78107</v>
+        <v>90678</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7049,25 +7049,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6453</v>
+        <v>4366</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>616427</v>
+        <v>616439</v>
       </c>
       <c r="R57" t="n">
-        <v>7268746</v>
+        <v>7268804</v>
       </c>
       <c r="S57" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7143,10 +7143,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111777447</v>
+        <v>111777411</v>
       </c>
       <c r="B58" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7159,26 +7159,31 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7186,10 +7191,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>616380</v>
+        <v>616368</v>
       </c>
       <c r="R58" t="n">
-        <v>7268804</v>
+        <v>7268803</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7224,13 +7229,17 @@
           <t>2023-08-29</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Skalade granstammar</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7249,10 +7258,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111778005</v>
+        <v>111778163</v>
       </c>
       <c r="B59" t="n">
-        <v>89369</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7261,30 +7270,35 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5447</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7292,10 +7306,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>616499</v>
+        <v>616207</v>
       </c>
       <c r="R59" t="n">
-        <v>7268611</v>
+        <v>7268636</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7330,13 +7344,17 @@
           <t>2023-08-29</t>
         </is>
       </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Skalad gran</t>
+        </is>
+      </c>
       <c r="AD59" t="b">
         <v>0</v>
       </c>
       <c r="AE59" t="b">
         <v>0</v>
       </c>
-      <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="b">
         <v>0</v>
       </c>
@@ -7355,10 +7373,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111777467</v>
+        <v>111778005</v>
       </c>
       <c r="B60" t="n">
-        <v>89423</v>
+        <v>89369</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7367,25 +7385,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>5447</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7398,10 +7416,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>616413</v>
+        <v>616499</v>
       </c>
       <c r="R60" t="n">
-        <v>7268760</v>
+        <v>7268611</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7461,10 +7479,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111778163</v>
+        <v>111777467</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7477,31 +7495,26 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
@@ -7509,10 +7522,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>616207</v>
+        <v>616413</v>
       </c>
       <c r="R61" t="n">
-        <v>7268636</v>
+        <v>7268760</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7547,17 +7560,13 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
       <c r="AE61" t="b">
         <v>0</v>
       </c>
+      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7576,10 +7585,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111777331</v>
+        <v>111778126</v>
       </c>
       <c r="B62" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7592,21 +7601,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7619,10 +7628,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>616363</v>
+        <v>616202</v>
       </c>
       <c r="R62" t="n">
-        <v>7268823</v>
+        <v>7268604</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7682,10 +7691,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111778248</v>
+        <v>111777499</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>78107</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7698,31 +7707,26 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
@@ -7730,10 +7734,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>616163</v>
+        <v>616427</v>
       </c>
       <c r="R63" t="n">
-        <v>7268630</v>
+        <v>7268746</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7768,17 +7772,13 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>Skalad gran</t>
-        </is>
-      </c>
       <c r="AD63" t="b">
         <v>0</v>
       </c>
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -7797,10 +7797,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111778126</v>
+        <v>111777331</v>
       </c>
       <c r="B64" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7813,21 +7813,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7840,10 +7840,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>616202</v>
+        <v>616363</v>
       </c>
       <c r="R64" t="n">
-        <v>7268604</v>
+        <v>7268823</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111777491</v>
+        <v>111778248</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -7941,7 +7941,7 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>färsk spillning</t>
         </is>
       </c>
       <c r="N65" t="inlineStr"/>
@@ -7951,10 +7951,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>616427</v>
+        <v>616163</v>
       </c>
       <c r="R65" t="n">
-        <v>7268746</v>
+        <v>7268630</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7991,7 +7991,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>Skalade granstammar</t>
+          <t>Skalad gran</t>
         </is>
       </c>
       <c r="AD65" t="b">
